--- a/stock/trading_time.xlsx
+++ b/stock/trading_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="8556" windowHeight="5352" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="8560" windowHeight="5350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Stock" sheetId="3" r:id="rId3"/>
     <sheet name="Stock Risk" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="DuxMay" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>4:00PM</t>
   </si>
@@ -210,6 +211,84 @@
   <si>
     <t>AFT10, Over Upper FLAT line(Open At Higher UL),PU70</t>
   </si>
+  <si>
+    <t>Max Borrow</t>
+  </si>
+  <si>
+    <t>Total Float(M)</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>TCBP</t>
+  </si>
+  <si>
+    <t>MMAT</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>BENF</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>SGE</t>
+  </si>
+  <si>
+    <t>CTNT</t>
+  </si>
+  <si>
+    <t>MGOL</t>
+  </si>
+  <si>
+    <t>JDZG</t>
+  </si>
+  <si>
+    <t>FFIE</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>Market Cap(M)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Float(M)</t>
+  </si>
+  <si>
+    <t>AWIN</t>
+  </si>
+  <si>
+    <t>S.Price</t>
+  </si>
+  <si>
+    <t>C.Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>3-4PM</t>
+  </si>
+  <si>
+    <t>AUDUSD,EURUSD</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +332,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +398,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -361,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -463,15 +554,6 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -485,6 +567,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -784,21 +902,21 @@
   <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="6" max="7" width="9.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,15 +924,15 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="12"/>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -886,6 +1004,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="14"/>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
@@ -933,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -974,27 +1099,27 @@
         <v>1</v>
       </c>
       <c r="B9" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="8">
-        <f>B9/2000</f>
-        <v>2.5</v>
+        <v>500</v>
+      </c>
+      <c r="C9" s="67">
+        <f>B9/500</f>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
-        <f>0.5*C9/100*100000</f>
-        <v>1250</v>
+        <f>0.07*C9/100*100000</f>
+        <v>70.000000000000014</v>
       </c>
       <c r="E9" s="6">
-        <f>0.25*C9/100*100000</f>
-        <v>625</v>
-      </c>
-      <c r="F9" s="8">
+        <f>0.04*C9/100*100000</f>
+        <v>40</v>
+      </c>
+      <c r="F9" s="65">
         <f>E9/B9*100</f>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="8">
         <f>(D9/B9)*100</f>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1029,27 +1154,27 @@
       </c>
       <c r="B10" s="7">
         <f>B9+D9</f>
-        <v>6250</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:C73" si="0">B10/2000</f>
-        <v>3.125</v>
+        <v>570</v>
+      </c>
+      <c r="C10" s="67">
+        <f t="shared" ref="C10:C73" si="0">B10/500</f>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10:D73" si="1">0.5*C10/100*100000</f>
-        <v>1562.5</v>
+        <f t="shared" ref="D10:D73" si="1">0.07*C10/100*100000</f>
+        <v>79.8</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:E73" si="2">0.25*C10/100*100000</f>
-        <v>781.25</v>
-      </c>
-      <c r="F10" s="8">
+        <f t="shared" ref="E10:E73" si="2">0.04*C10/100*100000</f>
+        <v>45.599999999999994</v>
+      </c>
+      <c r="F10" s="65">
         <f t="shared" ref="F10:F73" si="3">E10/B10*100</f>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" ref="G10:G73" si="4">(D10/B10)*100</f>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -1085,27 +1210,27 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" ref="B11:B74" si="10">B10+D10</f>
-        <v>7812.5</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.90625</v>
+        <v>649.79999999999995</v>
+      </c>
+      <c r="C11" s="67">
+        <f t="shared" si="0"/>
+        <v>1.2995999999999999</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>1953.125</v>
+        <v>90.971999999999994</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="2"/>
-        <v>976.5625</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>51.983999999999995</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -1141,27 +1266,27 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="10"/>
-        <v>9765.625</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>4.8828125</v>
+        <v>740.77199999999993</v>
+      </c>
+      <c r="C12" s="67">
+        <f t="shared" si="0"/>
+        <v>1.481544</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>2441.40625</v>
+        <v>103.70808000000002</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="2"/>
-        <v>1220.703125</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>59.261759999999988</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
@@ -1197,27 +1322,27 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="10"/>
-        <v>12207.03125</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>6.103515625</v>
+        <v>844.48007999999993</v>
+      </c>
+      <c r="C13" s="67">
+        <f t="shared" si="0"/>
+        <v>1.6889601599999999</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="1"/>
-        <v>3051.7578125</v>
+        <v>118.2272112</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>1525.87890625</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>67.558406399999996</v>
+      </c>
+      <c r="F13" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I13" s="5">
         <v>5</v>
@@ -1253,27 +1378,27 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="10"/>
-        <v>15258.7890625</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>7.62939453125</v>
+        <v>962.70729119999987</v>
+      </c>
+      <c r="C14" s="67">
+        <f t="shared" si="0"/>
+        <v>1.9254145823999997</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>3814.697265625</v>
+        <v>134.77902076799998</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="2"/>
-        <v>1907.3486328125</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>77.016583295999993</v>
+      </c>
+      <c r="F14" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I14" s="5">
         <v>6</v>
@@ -1309,27 +1434,27 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" si="10"/>
-        <v>19073.486328125</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>9.5367431640625</v>
+        <v>1097.4863119679999</v>
+      </c>
+      <c r="C15" s="67">
+        <f t="shared" si="0"/>
+        <v>2.1949726239359997</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="1"/>
-        <v>4768.37158203125</v>
+        <v>153.64808367551998</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="2"/>
-        <v>2384.185791015625</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>87.798904957439987</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I15" s="5">
         <v>7</v>
@@ -1365,27 +1490,27 @@
       </c>
       <c r="B16" s="7">
         <f t="shared" si="10"/>
-        <v>23841.85791015625</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>11.920928955078125</v>
+        <v>1251.1343956435198</v>
+      </c>
+      <c r="C16" s="67">
+        <f t="shared" si="0"/>
+        <v>2.5022687912870398</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="1"/>
-        <v>5960.4644775390625</v>
+        <v>175.15881539009283</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="2"/>
-        <v>2980.2322387695312</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>100.09075165148161</v>
+      </c>
+      <c r="F16" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I16" s="5">
         <v>8</v>
@@ -1421,27 +1546,27 @@
       </c>
       <c r="B17" s="7">
         <f t="shared" si="10"/>
-        <v>29802.322387695313</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>14.901161193847656</v>
+        <v>1426.2932110336126</v>
+      </c>
+      <c r="C17" s="67">
+        <f t="shared" si="0"/>
+        <v>2.8525864220672252</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="1"/>
-        <v>7450.5805969238281</v>
+        <v>199.68104954470579</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="2"/>
-        <v>3725.2902984619141</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>114.103456882689</v>
+      </c>
+      <c r="F17" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I17" s="5">
         <v>9</v>
@@ -1477,27 +1602,27 @@
       </c>
       <c r="B18" s="7">
         <f t="shared" si="10"/>
-        <v>37252.902984619141</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>18.62645149230957</v>
+        <v>1625.9742605783183</v>
+      </c>
+      <c r="C18" s="67">
+        <f t="shared" si="0"/>
+        <v>3.2519485211566366</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="1"/>
-        <v>9313.2257461547852</v>
+        <v>227.63639648096458</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
-        <v>4656.6128730773926</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>130.07794084626548</v>
+      </c>
+      <c r="F18" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I18" s="5">
         <v>10</v>
@@ -1533,27 +1658,27 @@
       </c>
       <c r="B19" s="7">
         <f t="shared" si="10"/>
-        <v>46566.128730773926</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>23.283064365386963</v>
+        <v>1853.6106570592829</v>
+      </c>
+      <c r="C19" s="67">
+        <f t="shared" si="0"/>
+        <v>3.7072213141185659</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="1"/>
-        <v>11641.532182693481</v>
+        <v>259.50549198829964</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>5820.7660913467407</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>148.28885256474263</v>
+      </c>
+      <c r="F19" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I19" s="5">
         <v>11</v>
@@ -1589,27 +1714,27 @@
       </c>
       <c r="B20" s="7">
         <f t="shared" si="10"/>
-        <v>58207.660913467407</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>29.103830456733704</v>
+        <v>2113.1161490475824</v>
+      </c>
+      <c r="C20" s="67">
+        <f t="shared" si="0"/>
+        <v>4.226232298095165</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="1"/>
-        <v>14551.915228366852</v>
+        <v>295.83626086666158</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
-        <v>7275.9576141834259</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>169.04929192380661</v>
+      </c>
+      <c r="F20" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I20" s="5">
         <v>12</v>
@@ -1645,27 +1770,27 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="10"/>
-        <v>72759.576141834259</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>36.37978807091713</v>
+        <v>2408.9524099142441</v>
+      </c>
+      <c r="C21" s="67">
+        <f t="shared" si="0"/>
+        <v>4.8179048198284882</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="1"/>
-        <v>18189.894035458565</v>
+        <v>337.25333738799418</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="2"/>
-        <v>9094.9470177292824</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>192.71619279313953</v>
+      </c>
+      <c r="F21" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I21" s="5">
         <v>13</v>
@@ -1701,27 +1826,27 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="10"/>
-        <v>90949.470177292824</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>45.474735088646412</v>
+        <v>2746.2057473022383</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" si="0"/>
+        <v>5.4924114946044762</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="1"/>
-        <v>22737.367544323206</v>
+        <v>384.46880462231337</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="2"/>
-        <v>11368.683772161603</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>219.6964597841791</v>
+      </c>
+      <c r="F22" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I22" s="5">
         <v>14</v>
@@ -1757,27 +1882,27 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="10"/>
-        <v>113686.83772161603</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>56.843418860808015</v>
+        <v>3130.6745519245515</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="0"/>
+        <v>6.2613491038491027</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="1"/>
-        <v>28421.709430404007</v>
+        <v>438.29443726943725</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="2"/>
-        <v>14210.854715202004</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>250.45396415396408</v>
+      </c>
+      <c r="F23" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I23" s="5">
         <v>15</v>
@@ -1813,27 +1938,27 @@
       </c>
       <c r="B24" s="7">
         <f t="shared" si="10"/>
-        <v>142108.54715202004</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>71.054273576010019</v>
+        <v>3568.9689891939888</v>
+      </c>
+      <c r="C24" s="67">
+        <f t="shared" si="0"/>
+        <v>7.1379379783879777</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>35527.136788005009</v>
+        <v>499.65565848715846</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="2"/>
-        <v>17763.568394002505</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>285.51751913551908</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I24" s="5">
         <v>16</v>
@@ -1869,27 +1994,27 @@
       </c>
       <c r="B25" s="7">
         <f t="shared" si="10"/>
-        <v>177635.68394002505</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="0"/>
-        <v>88.817841970012523</v>
+        <v>4068.6246476811475</v>
+      </c>
+      <c r="C25" s="67">
+        <f t="shared" si="0"/>
+        <v>8.1372492953622952</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>44408.920985006262</v>
+        <v>569.60745067536072</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="2"/>
-        <v>22204.460492503131</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>325.48997181449181</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I25" s="5">
         <v>17</v>
@@ -1925,27 +2050,27 @@
       </c>
       <c r="B26" s="7">
         <f t="shared" si="10"/>
-        <v>222044.60492503131</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="0"/>
-        <v>111.02230246251565</v>
+        <v>4638.2320983565078</v>
+      </c>
+      <c r="C26" s="67">
+        <f t="shared" si="0"/>
+        <v>9.2764641967130164</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>55511.151231257827</v>
+        <v>649.35249376991123</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="2"/>
-        <v>27755.575615628914</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>371.05856786852064</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I26" s="5">
         <v>18</v>
@@ -1981,27 +2106,27 @@
       </c>
       <c r="B27" s="7">
         <f t="shared" si="10"/>
-        <v>277555.75615628914</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>138.77787807814457</v>
+        <v>5287.584592126419</v>
+      </c>
+      <c r="C27" s="67">
+        <f t="shared" si="0"/>
+        <v>10.575169184252838</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="1"/>
-        <v>69388.939039072284</v>
+        <v>740.26184289769878</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="2"/>
-        <v>34694.469519536142</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>423.00676737011355</v>
+      </c>
+      <c r="F27" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I27" s="5">
         <v>19</v>
@@ -2037,27 +2162,27 @@
       </c>
       <c r="B28" s="7">
         <f t="shared" si="10"/>
-        <v>346944.69519536139</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>173.47234759768068</v>
+        <v>6027.8464350241175</v>
+      </c>
+      <c r="C28" s="67">
+        <f t="shared" si="0"/>
+        <v>12.055692870048235</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>86736.173798840347</v>
+        <v>843.89850090337643</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="2"/>
-        <v>43368.086899420174</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>482.22771480192938</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I28" s="5">
         <v>20</v>
@@ -2093,27 +2218,27 @@
       </c>
       <c r="B29" s="7">
         <f t="shared" si="10"/>
-        <v>433680.86899420177</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" si="0"/>
-        <v>216.84043449710089</v>
+        <v>6871.7449359274942</v>
+      </c>
+      <c r="C29" s="67">
+        <f t="shared" si="0"/>
+        <v>13.743489871854988</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="1"/>
-        <v>108420.21724855044</v>
+        <v>962.04429102984932</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="2"/>
-        <v>54210.108624275221</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>549.7395948741995</v>
+      </c>
+      <c r="F29" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I29" s="5">
         <v>21</v>
@@ -2149,27 +2274,27 @@
       </c>
       <c r="B30" s="7">
         <f t="shared" si="10"/>
-        <v>542101.08624275215</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" si="0"/>
-        <v>271.05054312137605</v>
+        <v>7833.789226957344</v>
+      </c>
+      <c r="C30" s="67">
+        <f t="shared" si="0"/>
+        <v>15.667578453914688</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>135525.27156068804</v>
+        <v>1096.7304917740282</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="2"/>
-        <v>67762.635780344019</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>626.70313815658756</v>
+      </c>
+      <c r="F30" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I30" s="5">
         <v>22</v>
@@ -2205,27 +2330,27 @@
       </c>
       <c r="B31" s="7">
         <f t="shared" si="10"/>
-        <v>677626.35780344019</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" si="0"/>
-        <v>338.81317890172011</v>
+        <v>8930.5197187313715</v>
+      </c>
+      <c r="C31" s="67">
+        <f t="shared" si="0"/>
+        <v>17.861039437462743</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="1"/>
-        <v>169406.58945086005</v>
+        <v>1250.2727606223921</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="2"/>
-        <v>84703.294725430023</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>714.44157749850979</v>
+      </c>
+      <c r="F31" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I31" s="5">
         <v>23</v>
@@ -2261,27 +2386,27 @@
       </c>
       <c r="B32" s="7">
         <f t="shared" si="10"/>
-        <v>847032.94725430023</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" si="0"/>
-        <v>423.51647362715011</v>
+        <v>10180.792479353764</v>
+      </c>
+      <c r="C32" s="67">
+        <f t="shared" si="0"/>
+        <v>20.361584958707528</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="1"/>
-        <v>211758.23681357503</v>
+        <v>1425.310947109527</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="2"/>
-        <v>105879.11840678751</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>814.46339834830121</v>
+      </c>
+      <c r="F32" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I32" s="5">
         <v>24</v>
@@ -2317,27 +2442,27 @@
       </c>
       <c r="B33" s="7">
         <f t="shared" si="10"/>
-        <v>1058791.1840678751</v>
-      </c>
-      <c r="C33" s="8">
-        <f t="shared" si="0"/>
-        <v>529.39559203393753</v>
+        <v>11606.103426463291</v>
+      </c>
+      <c r="C33" s="67">
+        <f t="shared" si="0"/>
+        <v>23.212206852926581</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="1"/>
-        <v>264697.79601696873</v>
+        <v>1624.8544797048608</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="2"/>
-        <v>132348.89800848436</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999996</v>
+        <v>928.48827411706327</v>
+      </c>
+      <c r="F33" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I33" s="5">
         <v>25</v>
@@ -2373,27 +2498,27 @@
       </c>
       <c r="B34" s="7">
         <f t="shared" si="10"/>
-        <v>1323488.9800848439</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" si="0"/>
-        <v>661.74449004242194</v>
+        <v>13230.957906168151</v>
+      </c>
+      <c r="C34" s="67">
+        <f t="shared" si="0"/>
+        <v>26.461915812336301</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>330872.24502121098</v>
+        <v>1852.3341068635411</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="2"/>
-        <v>165436.12251060549</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>1058.4766324934521</v>
+      </c>
+      <c r="F34" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I34" s="5">
         <v>26</v>
@@ -2429,27 +2554,27 @@
       </c>
       <c r="B35" s="7">
         <f t="shared" si="10"/>
-        <v>1654361.2251060549</v>
-      </c>
-      <c r="C35" s="8">
-        <f t="shared" si="0"/>
-        <v>827.18061255302746</v>
+        <v>15083.292013031692</v>
+      </c>
+      <c r="C35" s="67">
+        <f t="shared" si="0"/>
+        <v>30.166584026063386</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="1"/>
-        <v>413590.30627651367</v>
+        <v>2111.6608818244372</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="2"/>
-        <v>206795.15313825684</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>1206.6633610425354</v>
+      </c>
+      <c r="F35" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I35" s="5">
         <v>27</v>
@@ -2485,27 +2610,27 @@
       </c>
       <c r="B36" s="7">
         <f t="shared" si="10"/>
-        <v>2067951.5313825686</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" si="0"/>
-        <v>1033.9757656912843</v>
+        <v>17194.952894856131</v>
+      </c>
+      <c r="C36" s="67">
+        <f t="shared" si="0"/>
+        <v>34.389905789712259</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="1"/>
-        <v>516987.88284564216</v>
+        <v>2407.2934052798582</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="2"/>
-        <v>258493.94142282108</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>1375.5962315884906</v>
+      </c>
+      <c r="F36" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I36" s="5">
         <v>28</v>
@@ -2541,27 +2666,27 @@
       </c>
       <c r="B37" s="7">
         <f t="shared" si="10"/>
-        <v>2584939.4142282107</v>
-      </c>
-      <c r="C37" s="8">
-        <f t="shared" si="0"/>
-        <v>1292.4697071141054</v>
+        <v>19602.24630013599</v>
+      </c>
+      <c r="C37" s="67">
+        <f t="shared" si="0"/>
+        <v>39.204492600271983</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="1"/>
-        <v>646234.85355705267</v>
+        <v>2744.3144820190391</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="2"/>
-        <v>323117.42677852634</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>1568.1797040108793</v>
+      </c>
+      <c r="F37" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I37" s="5">
         <v>29</v>
@@ -2597,27 +2722,27 @@
       </c>
       <c r="B38" s="7">
         <f t="shared" si="10"/>
-        <v>3231174.2677852632</v>
-      </c>
-      <c r="C38" s="8">
-        <f t="shared" si="0"/>
-        <v>1615.5871338926315</v>
+        <v>22346.560782155029</v>
+      </c>
+      <c r="C38" s="67">
+        <f t="shared" si="0"/>
+        <v>44.693121564310061</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="1"/>
-        <v>807793.5669463157</v>
+        <v>3128.5185095017041</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="2"/>
-        <v>403896.78347315785</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>1787.7248625724026</v>
+      </c>
+      <c r="F38" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I38" s="5">
         <v>30</v>
@@ -2653,27 +2778,27 @@
       </c>
       <c r="B39" s="7">
         <f t="shared" si="10"/>
-        <v>4038967.8347315788</v>
-      </c>
-      <c r="C39" s="8">
-        <f t="shared" si="0"/>
-        <v>2019.4839173657895</v>
+        <v>25475.079291656733</v>
+      </c>
+      <c r="C39" s="67">
+        <f t="shared" si="0"/>
+        <v>50.950158583313467</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="1"/>
-        <v>1009741.9586828947</v>
+        <v>3566.5111008319427</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="2"/>
-        <v>504870.97934144735</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>2038.0063433325386</v>
+      </c>
+      <c r="F39" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I39" s="5">
         <v>31</v>
@@ -2709,27 +2834,27 @@
       </c>
       <c r="B40" s="7">
         <f t="shared" si="10"/>
-        <v>5048709.7934144735</v>
-      </c>
-      <c r="C40" s="8">
-        <f t="shared" si="0"/>
-        <v>2524.3548967072365</v>
+        <v>29041.590392488677</v>
+      </c>
+      <c r="C40" s="67">
+        <f t="shared" si="0"/>
+        <v>58.083180784977351</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="1"/>
-        <v>1262177.4483536182</v>
+        <v>4065.8226549484152</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="2"/>
-        <v>631088.72417680908</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999996</v>
+        <v>2323.3272313990942</v>
+      </c>
+      <c r="F40" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I40" s="5">
         <v>32</v>
@@ -2765,27 +2890,27 @@
       </c>
       <c r="B41" s="7">
         <f t="shared" si="10"/>
-        <v>6310887.2417680919</v>
-      </c>
-      <c r="C41" s="8">
-        <f t="shared" si="0"/>
-        <v>3155.4436208840461</v>
+        <v>33107.41304743709</v>
+      </c>
+      <c r="C41" s="67">
+        <f t="shared" si="0"/>
+        <v>66.214826094874184</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="1"/>
-        <v>1577721.810442023</v>
+        <v>4635.0378266411935</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="2"/>
-        <v>788860.90522101149</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>2648.5930437949669</v>
+      </c>
+      <c r="F41" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I41" s="5">
         <v>33</v>
@@ -2821,27 +2946,27 @@
       </c>
       <c r="B42" s="7">
         <f t="shared" si="10"/>
-        <v>7888609.0522101149</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" si="0"/>
-        <v>3944.3045261050574</v>
+        <v>37742.450874078284</v>
+      </c>
+      <c r="C42" s="67">
+        <f t="shared" si="0"/>
+        <v>75.484901748156574</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="1"/>
-        <v>1972152.2630525285</v>
+        <v>5283.9431223709607</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="2"/>
-        <v>986076.13152626425</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>3019.396069926263</v>
+      </c>
+      <c r="F42" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I42" s="5">
         <v>34</v>
@@ -2877,27 +3002,27 @@
       </c>
       <c r="B43" s="7">
         <f t="shared" si="10"/>
-        <v>9860761.3152626436</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" si="0"/>
-        <v>4930.3806576313218</v>
+        <v>43026.393996449246</v>
+      </c>
+      <c r="C43" s="67">
+        <f t="shared" si="0"/>
+        <v>86.052787992898487</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="1"/>
-        <v>2465190.3288156609</v>
+        <v>6023.695159502895</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="2"/>
-        <v>1232595.1644078305</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>3442.1115197159397</v>
+      </c>
+      <c r="F43" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I43" s="5">
         <v>35</v>
@@ -2933,27 +3058,27 @@
       </c>
       <c r="B44" s="7">
         <f t="shared" si="10"/>
-        <v>12325951.644078305</v>
-      </c>
-      <c r="C44" s="8">
-        <f t="shared" si="0"/>
-        <v>6162.9758220391523</v>
+        <v>49050.089155952141</v>
+      </c>
+      <c r="C44" s="67">
+        <f t="shared" si="0"/>
+        <v>98.100178311904287</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="1"/>
-        <v>3081487.9110195762</v>
+        <v>6867.0124818333015</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="2"/>
-        <v>1540743.9555097881</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>3924.0071324761711</v>
+      </c>
+      <c r="F44" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I44" s="5">
         <v>36</v>
@@ -2989,27 +3114,27 @@
       </c>
       <c r="B45" s="7">
         <f t="shared" si="10"/>
-        <v>15407439.555097882</v>
-      </c>
-      <c r="C45" s="8">
-        <f t="shared" si="0"/>
-        <v>7703.7197775489412</v>
+        <v>55917.101637785439</v>
+      </c>
+      <c r="C45" s="67">
+        <f t="shared" si="0"/>
+        <v>111.83420327557089</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="1"/>
-        <v>3851859.8887744709</v>
+        <v>7828.3942292899628</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="2"/>
-        <v>1925929.9443872354</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="3"/>
-        <v>12.500000000000004</v>
+        <v>4473.3681310228358</v>
+      </c>
+      <c r="F45" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="4"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I45" s="5">
         <v>37</v>
@@ -3045,27 +3170,27 @@
       </c>
       <c r="B46" s="7">
         <f t="shared" si="10"/>
-        <v>19259299.443872351</v>
-      </c>
-      <c r="C46" s="8">
-        <f t="shared" si="0"/>
-        <v>9629.6497219361754</v>
+        <v>63745.495867075399</v>
+      </c>
+      <c r="C46" s="67">
+        <f t="shared" si="0"/>
+        <v>127.4909917341508</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
-        <v>4814824.8609680878</v>
+        <v>8924.3694213905565</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="2"/>
-        <v>2407412.4304840439</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>5099.6396693660317</v>
+      </c>
+      <c r="F46" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I46" s="5">
         <v>38</v>
@@ -3101,27 +3226,27 @@
       </c>
       <c r="B47" s="7">
         <f t="shared" si="10"/>
-        <v>24074124.304840438</v>
-      </c>
-      <c r="C47" s="8">
-        <f t="shared" si="0"/>
-        <v>12037.06215242022</v>
+        <v>72669.865288465953</v>
+      </c>
+      <c r="C47" s="67">
+        <f t="shared" si="0"/>
+        <v>145.33973057693191</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="1"/>
-        <v>6018531.0762101095</v>
+        <v>10173.781140385234</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="2"/>
-        <v>3009265.5381050548</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>5813.589223077277</v>
+      </c>
+      <c r="F47" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I47" s="5">
         <v>39</v>
@@ -3157,27 +3282,27 @@
       </c>
       <c r="B48" s="7">
         <f t="shared" si="10"/>
-        <v>30092655.381050549</v>
-      </c>
-      <c r="C48" s="8">
-        <f t="shared" si="0"/>
-        <v>15046.327690525275</v>
+        <v>82843.646428851192</v>
+      </c>
+      <c r="C48" s="67">
+        <f t="shared" si="0"/>
+        <v>165.68729285770237</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>7523163.8452626374</v>
+        <v>11598.110500039167</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="2"/>
-        <v>3761581.9226313187</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>6627.4917143080957</v>
+      </c>
+      <c r="F48" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I48" s="5">
         <v>40</v>
@@ -3213,27 +3338,27 @@
       </c>
       <c r="B49" s="7">
         <f t="shared" si="10"/>
-        <v>37615819.226313189</v>
-      </c>
-      <c r="C49" s="8">
-        <f t="shared" si="0"/>
-        <v>18807.909613156593</v>
+        <v>94441.756928890361</v>
+      </c>
+      <c r="C49" s="67">
+        <f t="shared" si="0"/>
+        <v>188.88351385778071</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>9403954.8065782972</v>
+        <v>13221.845970044651</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="2"/>
-        <v>4701977.4032891486</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>7555.3405543112294</v>
+      </c>
+      <c r="F49" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I49" s="5">
         <v>41</v>
@@ -3269,27 +3394,27 @@
       </c>
       <c r="B50" s="7">
         <f t="shared" si="10"/>
-        <v>47019774.032891482</v>
-      </c>
-      <c r="C50" s="8">
-        <f t="shared" si="0"/>
-        <v>23509.88701644574</v>
+        <v>107663.60289893502</v>
+      </c>
+      <c r="C50" s="67">
+        <f t="shared" si="0"/>
+        <v>215.32720579787002</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>11754943.508222871</v>
+        <v>15072.904405850904</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="2"/>
-        <v>5877471.7541114353</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>8613.0882319148022</v>
+      </c>
+      <c r="F50" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I50" s="5">
         <v>42</v>
@@ -3325,27 +3450,27 @@
       </c>
       <c r="B51" s="7">
         <f t="shared" si="10"/>
-        <v>58774717.541114353</v>
-      </c>
-      <c r="C51" s="8">
-        <f t="shared" si="0"/>
-        <v>29387.358770557177</v>
+        <v>122736.50730478592</v>
+      </c>
+      <c r="C51" s="67">
+        <f t="shared" si="0"/>
+        <v>245.47301460957183</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>14693679.385278588</v>
+        <v>17183.111022670029</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="2"/>
-        <v>7346839.6926392941</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>9818.9205843828731</v>
+      </c>
+      <c r="F51" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I51" s="5">
         <v>43</v>
@@ -3381,27 +3506,27 @@
       </c>
       <c r="B52" s="7">
         <f t="shared" si="10"/>
-        <v>73468396.926392943</v>
-      </c>
-      <c r="C52" s="8">
-        <f t="shared" si="0"/>
-        <v>36734.198463196473</v>
+        <v>139919.61832745594</v>
+      </c>
+      <c r="C52" s="67">
+        <f t="shared" si="0"/>
+        <v>279.83923665491187</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>18367099.231598236</v>
+        <v>19588.746565843834</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="2"/>
-        <v>9183549.6157991178</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>11193.569466196475</v>
+      </c>
+      <c r="F52" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I52" s="5">
         <v>44</v>
@@ -3437,27 +3562,27 @@
       </c>
       <c r="B53" s="7">
         <f t="shared" si="10"/>
-        <v>91835496.157991171</v>
-      </c>
-      <c r="C53" s="8">
-        <f t="shared" si="0"/>
-        <v>45917.748078995588</v>
+        <v>159508.36489329979</v>
+      </c>
+      <c r="C53" s="67">
+        <f t="shared" si="0"/>
+        <v>319.01672978659957</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>22958874.039497796</v>
+        <v>22331.171085061971</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="2"/>
-        <v>11479437.019748898</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="3"/>
-        <v>12.500000000000004</v>
+        <v>12760.669191463983</v>
+      </c>
+      <c r="F53" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="4"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I53" s="5">
         <v>45</v>
@@ -3493,27 +3618,27 @@
       </c>
       <c r="B54" s="7">
         <f t="shared" si="10"/>
-        <v>114794370.19748896</v>
-      </c>
-      <c r="C54" s="8">
-        <f t="shared" si="0"/>
-        <v>57397.185098744485</v>
+        <v>181839.53597836176</v>
+      </c>
+      <c r="C54" s="67">
+        <f t="shared" si="0"/>
+        <v>363.67907195672353</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
-        <v>28698592.549372245</v>
+        <v>25457.535036970654</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="2"/>
-        <v>14349296.274686122</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="3"/>
-        <v>12.500000000000004</v>
+        <v>14547.162878268944</v>
+      </c>
+      <c r="F54" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="4"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I54" s="5">
         <v>46</v>
@@ -3549,27 +3674,27 @@
       </c>
       <c r="B55" s="7">
         <f t="shared" si="10"/>
-        <v>143492962.74686122</v>
-      </c>
-      <c r="C55" s="8">
-        <f t="shared" si="0"/>
-        <v>71746.481373430608</v>
+        <v>207297.07101533242</v>
+      </c>
+      <c r="C55" s="67">
+        <f t="shared" si="0"/>
+        <v>414.59414203066484</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="1"/>
-        <v>35873240.686715305</v>
+        <v>29021.58994214654</v>
       </c>
       <c r="E55" s="6">
         <f t="shared" si="2"/>
-        <v>17936620.343357652</v>
-      </c>
-      <c r="F55" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>16583.765681226596</v>
+      </c>
+      <c r="F55" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I55" s="5">
         <v>47</v>
@@ -3605,27 +3730,27 @@
       </c>
       <c r="B56" s="7">
         <f t="shared" si="10"/>
-        <v>179366203.43357652</v>
-      </c>
-      <c r="C56" s="8">
-        <f t="shared" si="0"/>
-        <v>89683.101716788267</v>
+        <v>236318.66095747895</v>
+      </c>
+      <c r="C56" s="67">
+        <f t="shared" si="0"/>
+        <v>472.63732191495791</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="1"/>
-        <v>44841550.858394131</v>
+        <v>33084.612534047053</v>
       </c>
       <c r="E56" s="6">
         <f t="shared" si="2"/>
-        <v>22420775.429197066</v>
-      </c>
-      <c r="F56" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>18905.492876598317</v>
+      </c>
+      <c r="F56" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I56" s="5">
         <v>48</v>
@@ -3661,27 +3786,27 @@
       </c>
       <c r="B57" s="7">
         <f t="shared" si="10"/>
-        <v>224207754.29197067</v>
-      </c>
-      <c r="C57" s="8">
-        <f t="shared" si="0"/>
-        <v>112103.87714598533</v>
+        <v>269403.27349152602</v>
+      </c>
+      <c r="C57" s="67">
+        <f t="shared" si="0"/>
+        <v>538.80654698305204</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="1"/>
-        <v>56051938.57299266</v>
+        <v>37716.45828881365</v>
       </c>
       <c r="E57" s="6">
         <f t="shared" si="2"/>
-        <v>28025969.28649633</v>
-      </c>
-      <c r="F57" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>21552.261879322083</v>
+      </c>
+      <c r="F57" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I57" s="5">
         <v>49</v>
@@ -3717,27 +3842,27 @@
       </c>
       <c r="B58" s="7">
         <f t="shared" si="10"/>
-        <v>280259692.86496335</v>
-      </c>
-      <c r="C58" s="8">
-        <f t="shared" si="0"/>
-        <v>140129.84643248169</v>
+        <v>307119.73178033967</v>
+      </c>
+      <c r="C58" s="67">
+        <f t="shared" si="0"/>
+        <v>614.23946356067938</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="1"/>
-        <v>70064923.216240838</v>
+        <v>42996.762449247559</v>
       </c>
       <c r="E58" s="6">
         <f t="shared" si="2"/>
-        <v>35032461.608120419</v>
-      </c>
-      <c r="F58" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>24569.578542427174</v>
+      </c>
+      <c r="F58" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I58" s="5">
         <v>50</v>
@@ -3773,27 +3898,27 @@
       </c>
       <c r="B59" s="7">
         <f t="shared" si="10"/>
-        <v>350324616.08120418</v>
-      </c>
-      <c r="C59" s="8">
-        <f t="shared" si="0"/>
-        <v>175162.30804060207</v>
+        <v>350116.49422958726</v>
+      </c>
+      <c r="C59" s="67">
+        <f t="shared" si="0"/>
+        <v>700.23298845917452</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="1"/>
-        <v>87581154.020301044</v>
+        <v>49016.309192142224</v>
       </c>
       <c r="E59" s="6">
         <f t="shared" si="2"/>
-        <v>43790577.010150522</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>28009.319538366984</v>
+      </c>
+      <c r="F59" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I59" s="5">
         <v>51</v>
@@ -3829,27 +3954,27 @@
       </c>
       <c r="B60" s="7">
         <f t="shared" si="10"/>
-        <v>437905770.10150522</v>
-      </c>
-      <c r="C60" s="8">
-        <f t="shared" si="0"/>
-        <v>218952.88505075261</v>
+        <v>399132.80342172948</v>
+      </c>
+      <c r="C60" s="67">
+        <f t="shared" si="0"/>
+        <v>798.26560684345895</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="1"/>
-        <v>109476442.52537629</v>
+        <v>55878.592479042134</v>
       </c>
       <c r="E60" s="6">
         <f t="shared" si="2"/>
-        <v>54738221.262688145</v>
-      </c>
-      <c r="F60" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>31930.624273738362</v>
+      </c>
+      <c r="F60" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I60" s="5">
         <v>52</v>
@@ -3885,27 +4010,27 @@
       </c>
       <c r="B61" s="7">
         <f t="shared" si="10"/>
-        <v>547382212.62688148</v>
-      </c>
-      <c r="C61" s="8">
-        <f t="shared" si="0"/>
-        <v>273691.10631344072</v>
+        <v>455011.3959007716</v>
+      </c>
+      <c r="C61" s="67">
+        <f t="shared" si="0"/>
+        <v>910.02279180154324</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>136845553.15672034</v>
+        <v>63701.595426108041</v>
       </c>
       <c r="E61" s="6">
         <f t="shared" si="2"/>
-        <v>68422776.57836017</v>
-      </c>
-      <c r="F61" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999996</v>
+        <v>36400.911672061731</v>
+      </c>
+      <c r="F61" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I61" s="5">
         <v>53</v>
@@ -3941,27 +4066,27 @@
       </c>
       <c r="B62" s="7">
         <f t="shared" si="10"/>
-        <v>684227765.78360176</v>
-      </c>
-      <c r="C62" s="8">
-        <f t="shared" si="0"/>
-        <v>342113.88289180089</v>
+        <v>518712.99132687965</v>
+      </c>
+      <c r="C62" s="67">
+        <f t="shared" si="0"/>
+        <v>1037.4259826537593</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
-        <v>171056941.44590044</v>
+        <v>72619.818785763156</v>
       </c>
       <c r="E62" s="6">
         <f t="shared" si="2"/>
-        <v>85528470.72295022</v>
-      </c>
-      <c r="F62" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>41497.039306150378</v>
+      </c>
+      <c r="F62" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I62" s="5">
         <v>54</v>
@@ -3997,27 +4122,27 @@
       </c>
       <c r="B63" s="7">
         <f t="shared" si="10"/>
-        <v>855284707.2295022</v>
-      </c>
-      <c r="C63" s="8">
-        <f t="shared" si="0"/>
-        <v>427642.35361475107</v>
+        <v>591332.81011264282</v>
+      </c>
+      <c r="C63" s="67">
+        <f t="shared" si="0"/>
+        <v>1182.6656202252857</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
-        <v>213821176.80737555</v>
+        <v>82786.59341577001</v>
       </c>
       <c r="E63" s="6">
         <f t="shared" si="2"/>
-        <v>106910588.40368778</v>
-      </c>
-      <c r="F63" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>47306.624809011431</v>
+      </c>
+      <c r="F63" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I63" s="5">
         <v>55</v>
@@ -4053,27 +4178,27 @@
       </c>
       <c r="B64" s="7">
         <f t="shared" si="10"/>
-        <v>1069105884.0368778</v>
-      </c>
-      <c r="C64" s="8">
-        <f t="shared" si="0"/>
-        <v>534552.94201843883</v>
+        <v>674119.4035284128</v>
+      </c>
+      <c r="C64" s="67">
+        <f t="shared" si="0"/>
+        <v>1348.2388070568256</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>267276471.00921941</v>
+        <v>94376.716493977801</v>
       </c>
       <c r="E64" s="6">
         <f t="shared" si="2"/>
-        <v>133638235.5046097</v>
-      </c>
-      <c r="F64" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>53929.552282273027</v>
+      </c>
+      <c r="F64" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I64" s="5">
         <v>56</v>
@@ -4109,27 +4234,27 @@
       </c>
       <c r="B65" s="7">
         <f t="shared" si="10"/>
-        <v>1336382355.0460973</v>
-      </c>
-      <c r="C65" s="8">
-        <f t="shared" si="0"/>
-        <v>668191.17752304859</v>
+        <v>768496.12002239062</v>
+      </c>
+      <c r="C65" s="67">
+        <f t="shared" si="0"/>
+        <v>1536.9922400447813</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="1"/>
-        <v>334095588.76152426</v>
+        <v>107589.4568031347</v>
       </c>
       <c r="E65" s="6">
         <f t="shared" si="2"/>
-        <v>167047794.38076213</v>
-      </c>
-      <c r="F65" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999996</v>
+        <v>61479.689601791251</v>
+      </c>
+      <c r="F65" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I65" s="5">
         <v>57</v>
@@ -4165,27 +4290,27 @@
       </c>
       <c r="B66" s="7">
         <f t="shared" si="10"/>
-        <v>1670477943.8076215</v>
-      </c>
-      <c r="C66" s="8">
-        <f t="shared" si="0"/>
-        <v>835238.97190381074</v>
+        <v>876085.57682552538</v>
+      </c>
+      <c r="C66" s="67">
+        <f t="shared" si="0"/>
+        <v>1752.1711536510506</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="1"/>
-        <v>417619485.95190531</v>
+        <v>122651.98075557355</v>
       </c>
       <c r="E66" s="6">
         <f t="shared" si="2"/>
-        <v>208809742.97595266</v>
-      </c>
-      <c r="F66" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>70086.846146042022</v>
+      </c>
+      <c r="F66" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G66" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I66" s="5">
         <v>58</v>
@@ -4221,27 +4346,27 @@
       </c>
       <c r="B67" s="7">
         <f t="shared" si="10"/>
-        <v>2088097429.7595267</v>
-      </c>
-      <c r="C67" s="8">
-        <f t="shared" si="0"/>
-        <v>1044048.7148797633</v>
+        <v>998737.55758109898</v>
+      </c>
+      <c r="C67" s="67">
+        <f t="shared" si="0"/>
+        <v>1997.4751151621979</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" si="1"/>
-        <v>522024357.43988162</v>
+        <v>139823.25806135387</v>
       </c>
       <c r="E67" s="6">
         <f t="shared" si="2"/>
-        <v>261012178.71994081</v>
-      </c>
-      <c r="F67" s="8">
-        <f t="shared" si="3"/>
-        <v>12.499999999999998</v>
+        <v>79899.004606487928</v>
+      </c>
+      <c r="F67" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G67" s="8">
         <f t="shared" si="4"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I67" s="5">
         <v>59</v>
@@ -4277,27 +4402,27 @@
       </c>
       <c r="B68" s="7">
         <f t="shared" si="10"/>
-        <v>2610121787.1994085</v>
-      </c>
-      <c r="C68" s="8">
-        <f t="shared" si="0"/>
-        <v>1305060.8935997044</v>
+        <v>1138560.8156424528</v>
+      </c>
+      <c r="C68" s="67">
+        <f t="shared" si="0"/>
+        <v>2277.1216312849056</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="1"/>
-        <v>652530446.79985213</v>
+        <v>159398.51418994341</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="2"/>
-        <v>326265223.39992607</v>
-      </c>
-      <c r="F68" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>91084.865251396215</v>
+      </c>
+      <c r="F68" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I68" s="5">
         <v>60</v>
@@ -4333,27 +4458,27 @@
       </c>
       <c r="B69" s="7">
         <f t="shared" si="10"/>
-        <v>3262652233.9992609</v>
-      </c>
-      <c r="C69" s="8">
-        <f t="shared" si="0"/>
-        <v>1631326.1169996304</v>
+        <v>1297959.3298323962</v>
+      </c>
+      <c r="C69" s="67">
+        <f t="shared" si="0"/>
+        <v>2595.9186596647924</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="1"/>
-        <v>815663058.49981523</v>
+        <v>181714.30617653547</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="2"/>
-        <v>407831529.24990761</v>
-      </c>
-      <c r="F69" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>103836.74638659171</v>
+      </c>
+      <c r="F69" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G69" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I69" s="5">
         <v>61</v>
@@ -4389,27 +4514,27 @@
       </c>
       <c r="B70" s="7">
         <f t="shared" si="10"/>
-        <v>4078315292.4990759</v>
-      </c>
-      <c r="C70" s="8">
-        <f t="shared" si="0"/>
-        <v>2039157.6462495381</v>
+        <v>1479673.6360089318</v>
+      </c>
+      <c r="C70" s="67">
+        <f t="shared" si="0"/>
+        <v>2959.3472720178634</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="1"/>
-        <v>1019578823.1247691</v>
+        <v>207154.30904125047</v>
       </c>
       <c r="E70" s="6">
         <f t="shared" si="2"/>
-        <v>509789411.56238455</v>
-      </c>
-      <c r="F70" s="8">
-        <f t="shared" si="3"/>
-        <v>12.500000000000004</v>
+        <v>118373.89088071455</v>
+      </c>
+      <c r="F70" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G70" s="8">
         <f t="shared" si="4"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I70" s="5">
         <v>62</v>
@@ -4445,27 +4570,27 @@
       </c>
       <c r="B71" s="7">
         <f t="shared" si="10"/>
-        <v>5097894115.6238451</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" si="0"/>
-        <v>2548947.0578119224</v>
+        <v>1686827.9450501823</v>
+      </c>
+      <c r="C71" s="67">
+        <f t="shared" si="0"/>
+        <v>3373.6558901003646</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="1"/>
-        <v>1274473528.9059613</v>
+        <v>236155.91230702554</v>
       </c>
       <c r="E71" s="6">
         <f t="shared" si="2"/>
-        <v>637236764.45298064</v>
-      </c>
-      <c r="F71" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>134946.2356040146</v>
+      </c>
+      <c r="F71" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G71" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I71" s="5">
         <v>63</v>
@@ -4501,27 +4626,27 @@
       </c>
       <c r="B72" s="7">
         <f t="shared" si="10"/>
-        <v>6372367644.5298061</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" si="0"/>
-        <v>3186183.8222649032</v>
+        <v>1922983.8573572079</v>
+      </c>
+      <c r="C72" s="67">
+        <f t="shared" si="0"/>
+        <v>3845.9677147144157</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="1"/>
-        <v>1593091911.1324515</v>
+        <v>269217.74003000907</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" si="2"/>
-        <v>796545955.56622577</v>
-      </c>
-      <c r="F72" s="8">
-        <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>153838.70858857661</v>
+      </c>
+      <c r="F72" s="65">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G72" s="8">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I72" s="5">
         <v>64</v>
@@ -4557,27 +4682,27 @@
       </c>
       <c r="B73" s="7">
         <f t="shared" si="10"/>
-        <v>7965459555.6622581</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" si="0"/>
-        <v>3982729.7778311293</v>
+        <v>2192201.597387217</v>
+      </c>
+      <c r="C73" s="67">
+        <f t="shared" si="0"/>
+        <v>4384.4031947744343</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="1"/>
-        <v>1991364888.9155648</v>
+        <v>306908.22363421042</v>
       </c>
       <c r="E73" s="6">
         <f t="shared" si="2"/>
-        <v>995682444.45778239</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="3"/>
-        <v>12.500000000000004</v>
+        <v>175376.12779097736</v>
+      </c>
+      <c r="F73" s="65">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="G73" s="8">
         <f t="shared" si="4"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I73" s="5">
         <v>65</v>
@@ -4613,27 +4738,27 @@
       </c>
       <c r="B74" s="7">
         <f t="shared" si="10"/>
-        <v>9956824444.5778236</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" ref="C74:C137" si="12">B74/2000</f>
-        <v>4978412.2222889122</v>
+        <v>2499109.8210214274</v>
+      </c>
+      <c r="C74" s="67">
+        <f t="shared" ref="C74:C137" si="12">B74/500</f>
+        <v>4998.2196420428545</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" ref="D74:D137" si="13">0.5*C74/100*100000</f>
-        <v>2489206111.1444559</v>
+        <f t="shared" ref="D74:D137" si="13">0.07*C74/100*100000</f>
+        <v>349875.37494299986</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" ref="E74:E137" si="14">0.25*C74/100*100000</f>
-        <v>1244603055.572228</v>
-      </c>
-      <c r="F74" s="8">
+        <f t="shared" ref="E74:E137" si="14">0.04*C74/100*100000</f>
+        <v>199928.78568171416</v>
+      </c>
+      <c r="F74" s="65">
         <f t="shared" ref="F74:F137" si="15">E74/B74*100</f>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G74" s="8">
         <f t="shared" ref="G74:G137" si="16">(D74/B74)*100</f>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I74" s="5">
         <v>66</v>
@@ -4669,27 +4794,27 @@
       </c>
       <c r="B75" s="7">
         <f t="shared" ref="B75:B138" si="22">B74+D74</f>
-        <v>12446030555.722279</v>
-      </c>
-      <c r="C75" s="8">
+        <v>2848985.1959644272</v>
+      </c>
+      <c r="C75" s="67">
         <f t="shared" si="12"/>
-        <v>6223015.2778611397</v>
+        <v>5697.970391928854</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="13"/>
-        <v>3111507638.9305696</v>
+        <v>398857.92743501981</v>
       </c>
       <c r="E75" s="6">
         <f t="shared" si="14"/>
-        <v>1555753819.4652848</v>
-      </c>
-      <c r="F75" s="8">
+        <v>227918.81567715414</v>
+      </c>
+      <c r="F75" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I75" s="5">
         <v>67</v>
@@ -4725,27 +4850,27 @@
       </c>
       <c r="B76" s="7">
         <f t="shared" si="22"/>
-        <v>15557538194.652847</v>
-      </c>
-      <c r="C76" s="8">
+        <v>3247843.1233994472</v>
+      </c>
+      <c r="C76" s="67">
         <f t="shared" si="12"/>
-        <v>7778769.097326424</v>
+        <v>6495.686246798894</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="13"/>
-        <v>3889384548.6632118</v>
+        <v>454698.0372759226</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" si="14"/>
-        <v>1944692274.3316059</v>
-      </c>
-      <c r="F76" s="8">
+        <v>259827.44987195576</v>
+      </c>
+      <c r="F76" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I76" s="5">
         <v>68</v>
@@ -4781,27 +4906,27 @@
       </c>
       <c r="B77" s="7">
         <f t="shared" si="22"/>
-        <v>19446922743.316059</v>
-      </c>
-      <c r="C77" s="8">
+        <v>3702541.1606753697</v>
+      </c>
+      <c r="C77" s="67">
         <f t="shared" si="12"/>
-        <v>9723461.371658029</v>
+        <v>7405.0823213507392</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="13"/>
-        <v>4861730685.8290148</v>
+        <v>518355.76249455177</v>
       </c>
       <c r="E77" s="6">
         <f t="shared" si="14"/>
-        <v>2430865342.9145074</v>
-      </c>
-      <c r="F77" s="8">
+        <v>296203.29285402963</v>
+      </c>
+      <c r="F77" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G77" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I77" s="5">
         <v>69</v>
@@ -4837,27 +4962,27 @@
       </c>
       <c r="B78" s="7">
         <f t="shared" si="22"/>
-        <v>24308653429.145073</v>
-      </c>
-      <c r="C78" s="8">
+        <v>4220896.9231699212</v>
+      </c>
+      <c r="C78" s="67">
         <f t="shared" si="12"/>
-        <v>12154326.714572536</v>
+        <v>8441.7938463398423</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="13"/>
-        <v>6077163357.2862682</v>
+        <v>590925.56924378895</v>
       </c>
       <c r="E78" s="6">
         <f t="shared" si="14"/>
-        <v>3038581678.6431341</v>
-      </c>
-      <c r="F78" s="8">
+        <v>337671.75385359372</v>
+      </c>
+      <c r="F78" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G78" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I78" s="5">
         <v>70</v>
@@ -4893,27 +5018,27 @@
       </c>
       <c r="B79" s="7">
         <f t="shared" si="22"/>
-        <v>30385816786.431343</v>
-      </c>
-      <c r="C79" s="8">
+        <v>4811822.4924137099</v>
+      </c>
+      <c r="C79" s="67">
         <f t="shared" si="12"/>
-        <v>15192908.393215671</v>
+        <v>9623.6449848274206</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="13"/>
-        <v>7596454196.6078348</v>
+        <v>673655.14893791953</v>
       </c>
       <c r="E79" s="6">
         <f t="shared" si="14"/>
-        <v>3798227098.3039174</v>
-      </c>
-      <c r="F79" s="8">
+        <v>384945.79939309682</v>
+      </c>
+      <c r="F79" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>8</v>
       </c>
       <c r="G79" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I79" s="5">
         <v>71</v>
@@ -4949,27 +5074,27 @@
       </c>
       <c r="B80" s="7">
         <f t="shared" si="22"/>
-        <v>37982270983.039177</v>
-      </c>
-      <c r="C80" s="8">
+        <v>5485477.641351629</v>
+      </c>
+      <c r="C80" s="67">
         <f t="shared" si="12"/>
-        <v>18991135.491519589</v>
+        <v>10970.955282703258</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="13"/>
-        <v>9495567745.7597942</v>
+        <v>767966.86978922819</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" si="14"/>
-        <v>4747783872.8798971</v>
-      </c>
-      <c r="F80" s="8">
+        <v>438838.21130813035</v>
+      </c>
+      <c r="F80" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I80" s="5">
         <v>72</v>
@@ -5005,27 +5130,27 @@
       </c>
       <c r="B81" s="7">
         <f t="shared" si="22"/>
-        <v>47477838728.798973</v>
-      </c>
-      <c r="C81" s="8">
+        <v>6253444.5111408569</v>
+      </c>
+      <c r="C81" s="67">
         <f t="shared" si="12"/>
-        <v>23738919.364399485</v>
+        <v>12506.889022281714</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="13"/>
-        <v>11869459682.199743</v>
+        <v>875482.23155972012</v>
       </c>
       <c r="E81" s="6">
         <f t="shared" si="14"/>
-        <v>5934729841.0998716</v>
-      </c>
-      <c r="F81" s="8">
+        <v>500275.56089126854</v>
+      </c>
+      <c r="F81" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G81" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I81" s="5">
         <v>73</v>
@@ -5061,27 +5186,27 @@
       </c>
       <c r="B82" s="7">
         <f t="shared" si="22"/>
-        <v>59347298410.998718</v>
-      </c>
-      <c r="C82" s="8">
+        <v>7128926.7427005768</v>
+      </c>
+      <c r="C82" s="67">
         <f t="shared" si="12"/>
-        <v>29673649.205499358</v>
+        <v>14257.853485401154</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="13"/>
-        <v>14836824602.74968</v>
+        <v>998049.74397808092</v>
       </c>
       <c r="E82" s="6">
         <f t="shared" si="14"/>
-        <v>7418412301.3748398</v>
-      </c>
-      <c r="F82" s="8">
+        <v>570314.13941604609</v>
+      </c>
+      <c r="F82" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G82" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I82" s="5">
         <v>74</v>
@@ -5117,27 +5242,27 @@
       </c>
       <c r="B83" s="7">
         <f t="shared" si="22"/>
-        <v>74184123013.748398</v>
-      </c>
-      <c r="C83" s="8">
+        <v>8126976.4866786581</v>
+      </c>
+      <c r="C83" s="67">
         <f t="shared" si="12"/>
-        <v>37092061.506874196</v>
+        <v>16253.952973357316</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="13"/>
-        <v>18546030753.437099</v>
+        <v>1137776.7081350123</v>
       </c>
       <c r="E83" s="6">
         <f t="shared" si="14"/>
-        <v>9273015376.7185497</v>
-      </c>
-      <c r="F83" s="8">
+        <v>650158.1189342927</v>
+      </c>
+      <c r="F83" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G83" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I83" s="5">
         <v>75</v>
@@ -5173,27 +5298,27 @@
       </c>
       <c r="B84" s="7">
         <f t="shared" si="22"/>
-        <v>92730153767.185501</v>
-      </c>
-      <c r="C84" s="8">
+        <v>9264753.1948136706</v>
+      </c>
+      <c r="C84" s="67">
         <f t="shared" si="12"/>
-        <v>46365076.883592747</v>
+        <v>18529.506389627342</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="13"/>
-        <v>23182538441.796375</v>
+        <v>1297065.447273914</v>
       </c>
       <c r="E84" s="6">
         <f t="shared" si="14"/>
-        <v>11591269220.898188</v>
-      </c>
-      <c r="F84" s="8">
+        <v>741180.25558509375</v>
+      </c>
+      <c r="F84" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G84" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I84" s="5">
         <v>76</v>
@@ -5229,27 +5354,27 @@
       </c>
       <c r="B85" s="7">
         <f t="shared" si="22"/>
-        <v>115912692208.98187</v>
-      </c>
-      <c r="C85" s="8">
+        <v>10561818.642087584</v>
+      </c>
+      <c r="C85" s="67">
         <f t="shared" si="12"/>
-        <v>57956346.104490936</v>
+        <v>21123.637284175169</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="13"/>
-        <v>28978173052.245464</v>
+        <v>1478654.6098922621</v>
       </c>
       <c r="E85" s="6">
         <f t="shared" si="14"/>
-        <v>14489086526.122732</v>
-      </c>
-      <c r="F85" s="8">
+        <v>844945.49136700667</v>
+      </c>
+      <c r="F85" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G85" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I85" s="5">
         <v>77</v>
@@ -5285,27 +5410,27 @@
       </c>
       <c r="B86" s="7">
         <f t="shared" si="22"/>
-        <v>144890865261.22733</v>
-      </c>
-      <c r="C86" s="8">
+        <v>12040473.251979847</v>
+      </c>
+      <c r="C86" s="67">
         <f t="shared" si="12"/>
-        <v>72445432.63061367</v>
+        <v>24080.946503959694</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="13"/>
-        <v>36222716315.306831</v>
+        <v>1685666.2552771787</v>
       </c>
       <c r="E86" s="6">
         <f t="shared" si="14"/>
-        <v>18111358157.653416</v>
-      </c>
-      <c r="F86" s="8">
+        <v>963237.86015838769</v>
+      </c>
+      <c r="F86" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G86" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I86" s="5">
         <v>78</v>
@@ -5341,27 +5466,27 @@
       </c>
       <c r="B87" s="7">
         <f t="shared" si="22"/>
-        <v>181113581576.53415</v>
-      </c>
-      <c r="C87" s="8">
+        <v>13726139.507257026</v>
+      </c>
+      <c r="C87" s="67">
         <f t="shared" si="12"/>
-        <v>90556790.788267076</v>
+        <v>27452.27901451405</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="13"/>
-        <v>45278395394.133537</v>
+        <v>1921659.5310159835</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" si="14"/>
-        <v>22639197697.066769</v>
-      </c>
-      <c r="F87" s="8">
+        <v>1098091.160580562</v>
+      </c>
+      <c r="F87" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G87" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I87" s="5">
         <v>79</v>
@@ -5397,27 +5522,27 @@
       </c>
       <c r="B88" s="7">
         <f t="shared" si="22"/>
-        <v>226391976970.66769</v>
-      </c>
-      <c r="C88" s="8">
+        <v>15647799.038273009</v>
+      </c>
+      <c r="C88" s="67">
         <f t="shared" si="12"/>
-        <v>113195988.48533385</v>
+        <v>31295.598076546015</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="13"/>
-        <v>56597994242.666916</v>
+        <v>2190691.8653582209</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" si="14"/>
-        <v>28298997121.333458</v>
-      </c>
-      <c r="F88" s="8">
+        <v>1251823.9230618405</v>
+      </c>
+      <c r="F88" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G88" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I88" s="5">
         <v>80</v>
@@ -5453,27 +5578,27 @@
       </c>
       <c r="B89" s="7">
         <f t="shared" si="22"/>
-        <v>282989971213.33459</v>
-      </c>
-      <c r="C89" s="8">
+        <v>17838490.903631229</v>
+      </c>
+      <c r="C89" s="67">
         <f t="shared" si="12"/>
-        <v>141494985.60666731</v>
+        <v>35676.981807262455</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="13"/>
-        <v>70747492803.333649</v>
+        <v>2497388.726508372</v>
       </c>
       <c r="E89" s="6">
         <f t="shared" si="14"/>
-        <v>35373746401.666824</v>
-      </c>
-      <c r="F89" s="8">
+        <v>1427079.2722904983</v>
+      </c>
+      <c r="F89" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G89" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I89" s="5">
         <v>81</v>
@@ -5509,27 +5634,27 @@
       </c>
       <c r="B90" s="7">
         <f t="shared" si="22"/>
-        <v>353737464016.66821</v>
-      </c>
-      <c r="C90" s="8">
+        <v>20335879.6301396</v>
+      </c>
+      <c r="C90" s="67">
         <f t="shared" si="12"/>
-        <v>176868732.0083341</v>
+        <v>40671.759260279199</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="13"/>
-        <v>88434366004.167053</v>
+        <v>2847023.148219544</v>
       </c>
       <c r="E90" s="6">
         <f t="shared" si="14"/>
-        <v>44217183002.083527</v>
-      </c>
-      <c r="F90" s="8">
+        <v>1626870.3704111679</v>
+      </c>
+      <c r="F90" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G90" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I90" s="5">
         <v>82</v>
@@ -5565,27 +5690,27 @@
       </c>
       <c r="B91" s="7">
         <f t="shared" si="22"/>
-        <v>442171830020.83527</v>
-      </c>
-      <c r="C91" s="8">
+        <v>23182902.778359145</v>
+      </c>
+      <c r="C91" s="67">
         <f t="shared" si="12"/>
-        <v>221085915.01041764</v>
+        <v>46365.805556718289</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="13"/>
-        <v>110542957505.20882</v>
+        <v>3245606.3889702805</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" si="14"/>
-        <v>55271478752.604408</v>
-      </c>
-      <c r="F91" s="8">
+        <v>1854632.2222687316</v>
+      </c>
+      <c r="F91" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G91" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I91" s="5">
         <v>83</v>
@@ -5621,27 +5746,27 @@
       </c>
       <c r="B92" s="7">
         <f t="shared" si="22"/>
-        <v>552714787526.04407</v>
-      </c>
-      <c r="C92" s="8">
+        <v>26428509.167329427</v>
+      </c>
+      <c r="C92" s="67">
         <f t="shared" si="12"/>
-        <v>276357393.76302201</v>
+        <v>52857.018334658853</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="13"/>
-        <v>138178696881.51099</v>
+        <v>3699991.2834261204</v>
       </c>
       <c r="E92" s="6">
         <f t="shared" si="14"/>
-        <v>69089348440.755493</v>
-      </c>
-      <c r="F92" s="8">
+        <v>2114280.7333863545</v>
+      </c>
+      <c r="F92" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999996</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G92" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I92" s="5">
         <v>84</v>
@@ -5677,27 +5802,27 @@
       </c>
       <c r="B93" s="7">
         <f t="shared" si="22"/>
-        <v>690893484407.55505</v>
-      </c>
-      <c r="C93" s="8">
+        <v>30128500.450755548</v>
+      </c>
+      <c r="C93" s="67">
         <f t="shared" si="12"/>
-        <v>345446742.20377755</v>
+        <v>60257.000901511099</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="13"/>
-        <v>172723371101.88879</v>
+        <v>4217990.0631057769</v>
       </c>
       <c r="E93" s="6">
         <f t="shared" si="14"/>
-        <v>86361685550.944397</v>
-      </c>
-      <c r="F93" s="8">
+        <v>2410280.0360604441</v>
+      </c>
+      <c r="F93" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G93" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I93" s="5">
         <v>85</v>
@@ -5733,27 +5858,27 @@
       </c>
       <c r="B94" s="7">
         <f t="shared" si="22"/>
-        <v>863616855509.44385</v>
-      </c>
-      <c r="C94" s="8">
+        <v>34346490.513861328</v>
+      </c>
+      <c r="C94" s="67">
         <f t="shared" si="12"/>
-        <v>431808427.75472194</v>
+        <v>68692.98102772265</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="13"/>
-        <v>215904213877.36099</v>
+        <v>4808508.6719405865</v>
       </c>
       <c r="E94" s="6">
         <f t="shared" si="14"/>
-        <v>107952106938.6805</v>
-      </c>
-      <c r="F94" s="8">
+        <v>2747719.241108906</v>
+      </c>
+      <c r="F94" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G94" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I94" s="5">
         <v>86</v>
@@ -5789,27 +5914,27 @@
       </c>
       <c r="B95" s="7">
         <f t="shared" si="22"/>
-        <v>1079521069386.8048</v>
-      </c>
-      <c r="C95" s="8">
+        <v>39154999.185801916</v>
+      </c>
+      <c r="C95" s="67">
         <f t="shared" si="12"/>
-        <v>539760534.69340241</v>
+        <v>78309.998371603826</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="13"/>
-        <v>269880267346.7012</v>
+        <v>5481699.8860122692</v>
       </c>
       <c r="E95" s="6">
         <f t="shared" si="14"/>
-        <v>134940133673.3506</v>
-      </c>
-      <c r="F95" s="8">
+        <v>3132399.9348641532</v>
+      </c>
+      <c r="F95" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G95" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I95" s="5">
         <v>87</v>
@@ -5845,27 +5970,27 @@
       </c>
       <c r="B96" s="7">
         <f t="shared" si="22"/>
-        <v>1349401336733.5061</v>
-      </c>
-      <c r="C96" s="8">
+        <v>44636699.071814187</v>
+      </c>
+      <c r="C96" s="67">
         <f t="shared" si="12"/>
-        <v>674700668.3667531</v>
+        <v>89273.398143628379</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="13"/>
-        <v>337350334183.37659</v>
+        <v>6249137.870053987</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" si="14"/>
-        <v>168675167091.68829</v>
-      </c>
-      <c r="F96" s="8">
+        <v>3570935.9257451352</v>
+      </c>
+      <c r="F96" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G96" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I96" s="5">
         <v>88</v>
@@ -5901,27 +6026,27 @@
       </c>
       <c r="B97" s="7">
         <f t="shared" si="22"/>
-        <v>1686751670916.8828</v>
-      </c>
-      <c r="C97" s="8">
+        <v>50885836.941868171</v>
+      </c>
+      <c r="C97" s="67">
         <f t="shared" si="12"/>
-        <v>843375835.45844138</v>
+        <v>101771.67388373634</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="13"/>
-        <v>421687917729.2207</v>
+        <v>7124017.1718615443</v>
       </c>
       <c r="E97" s="6">
         <f t="shared" si="14"/>
-        <v>210843958864.61035</v>
-      </c>
-      <c r="F97" s="8">
+        <v>4070866.9553494537</v>
+      </c>
+      <c r="F97" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G97" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I97" s="5">
         <v>89</v>
@@ -5957,27 +6082,27 @@
       </c>
       <c r="B98" s="7">
         <f t="shared" si="22"/>
-        <v>2108439588646.1035</v>
-      </c>
-      <c r="C98" s="8">
+        <v>58009854.113729715</v>
+      </c>
+      <c r="C98" s="67">
         <f t="shared" si="12"/>
-        <v>1054219794.3230518</v>
+        <v>116019.70822745943</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="13"/>
-        <v>527109897161.52588</v>
+        <v>8121379.5759221613</v>
       </c>
       <c r="E98" s="6">
         <f t="shared" si="14"/>
-        <v>263554948580.76294</v>
-      </c>
-      <c r="F98" s="8">
+        <v>4640788.3290983774</v>
+      </c>
+      <c r="F98" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G98" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I98" s="5">
         <v>90</v>
@@ -6013,27 +6138,27 @@
       </c>
       <c r="B99" s="7">
         <f t="shared" si="22"/>
-        <v>2635549485807.6294</v>
-      </c>
-      <c r="C99" s="8">
+        <v>66131233.689651877</v>
+      </c>
+      <c r="C99" s="67">
         <f t="shared" si="12"/>
-        <v>1317774742.9038148</v>
+        <v>132262.46737930377</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="13"/>
-        <v>658887371451.90747</v>
+        <v>9258372.7165512647</v>
       </c>
       <c r="E99" s="6">
         <f t="shared" si="14"/>
-        <v>329443685725.95374</v>
-      </c>
-      <c r="F99" s="8">
+        <v>5290498.6951721506</v>
+      </c>
+      <c r="F99" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G99" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I99" s="5">
         <v>91</v>
@@ -6069,27 +6194,27 @@
       </c>
       <c r="B100" s="7">
         <f t="shared" si="22"/>
-        <v>3294436857259.5371</v>
-      </c>
-      <c r="C100" s="8">
+        <v>75389606.406203136</v>
+      </c>
+      <c r="C100" s="67">
         <f t="shared" si="12"/>
-        <v>1647218428.6297686</v>
+        <v>150779.21281240627</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="13"/>
-        <v>823609214314.88428</v>
+        <v>10554544.896868439</v>
       </c>
       <c r="E100" s="6">
         <f t="shared" si="14"/>
-        <v>411804607157.44214</v>
-      </c>
-      <c r="F100" s="8">
+        <v>6031168.5124962516</v>
+      </c>
+      <c r="F100" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G100" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I100" s="5">
         <v>92</v>
@@ -6125,27 +6250,27 @@
       </c>
       <c r="B101" s="7">
         <f t="shared" si="22"/>
-        <v>4118046071574.4214</v>
-      </c>
-      <c r="C101" s="8">
+        <v>85944151.303071573</v>
+      </c>
+      <c r="C101" s="67">
         <f t="shared" si="12"/>
-        <v>2059023035.7872107</v>
+        <v>171888.30260614314</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="13"/>
-        <v>1029511517893.6053</v>
+        <v>12032181.182430023</v>
       </c>
       <c r="E101" s="6">
         <f t="shared" si="14"/>
-        <v>514755758946.80267</v>
-      </c>
-      <c r="F101" s="8">
+        <v>6875532.104245727</v>
+      </c>
+      <c r="F101" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G101" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I101" s="5">
         <v>93</v>
@@ -6181,27 +6306,27 @@
       </c>
       <c r="B102" s="7">
         <f t="shared" si="22"/>
-        <v>5147557589468.0264</v>
-      </c>
-      <c r="C102" s="8">
+        <v>97976332.485501602</v>
+      </c>
+      <c r="C102" s="67">
         <f t="shared" si="12"/>
-        <v>2573778794.7340131</v>
+        <v>195952.66497100319</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="13"/>
-        <v>1286889397367.0066</v>
+        <v>13716686.547970224</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" si="14"/>
-        <v>643444698683.5033</v>
-      </c>
-      <c r="F102" s="8">
+        <v>7838106.5988401277</v>
+      </c>
+      <c r="F102" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G102" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I102" s="5">
         <v>94</v>
@@ -6237,27 +6362,27 @@
       </c>
       <c r="B103" s="7">
         <f t="shared" si="22"/>
-        <v>6434446986835.0332</v>
-      </c>
-      <c r="C103" s="8">
+        <v>111693019.03347182</v>
+      </c>
+      <c r="C103" s="67">
         <f t="shared" si="12"/>
-        <v>3217223493.4175167</v>
+        <v>223386.03806694364</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="13"/>
-        <v>1608611746708.7583</v>
+        <v>15637022.664686054</v>
       </c>
       <c r="E103" s="6">
         <f t="shared" si="14"/>
-        <v>804305873354.37915</v>
-      </c>
-      <c r="F103" s="8">
+        <v>8935441.5226777457</v>
+      </c>
+      <c r="F103" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G103" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I103" s="5">
         <v>95</v>
@@ -6293,27 +6418,27 @@
       </c>
       <c r="B104" s="7">
         <f t="shared" si="22"/>
-        <v>8043058733543.791</v>
-      </c>
-      <c r="C104" s="8">
+        <v>127330041.69815788</v>
+      </c>
+      <c r="C104" s="67">
         <f t="shared" si="12"/>
-        <v>4021529366.7718954</v>
+        <v>254660.08339631575</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="13"/>
-        <v>2010764683385.9478</v>
+        <v>17826205.837742105</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" si="14"/>
-        <v>1005382341692.9739</v>
-      </c>
-      <c r="F104" s="8">
+        <v>10186403.33585263</v>
+      </c>
+      <c r="F104" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G104" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I104" s="5">
         <v>96</v>
@@ -6349,27 +6474,27 @@
       </c>
       <c r="B105" s="7">
         <f t="shared" si="22"/>
-        <v>10053823416929.738</v>
-      </c>
-      <c r="C105" s="8">
+        <v>145156247.5359</v>
+      </c>
+      <c r="C105" s="67">
         <f t="shared" si="12"/>
-        <v>5026911708.4648695</v>
+        <v>290312.49507180002</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="13"/>
-        <v>2513455854232.4351</v>
+        <v>20321874.655026004</v>
       </c>
       <c r="E105" s="6">
         <f t="shared" si="14"/>
-        <v>1256727927116.2175</v>
-      </c>
-      <c r="F105" s="8">
+        <v>11612499.802872</v>
+      </c>
+      <c r="F105" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G105" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I105" s="5">
         <v>97</v>
@@ -6405,27 +6530,27 @@
       </c>
       <c r="B106" s="7">
         <f t="shared" si="22"/>
-        <v>12567279271162.174</v>
-      </c>
-      <c r="C106" s="8">
+        <v>165478122.19092602</v>
+      </c>
+      <c r="C106" s="67">
         <f t="shared" si="12"/>
-        <v>6283639635.5810871</v>
+        <v>330956.24438185204</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="13"/>
-        <v>3141819817790.5435</v>
+        <v>23166937.106729645</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" si="14"/>
-        <v>1570909908895.2717</v>
-      </c>
-      <c r="F106" s="8">
+        <v>13238249.775274081</v>
+      </c>
+      <c r="F106" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G106" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I106" s="5">
         <v>98</v>
@@ -6461,27 +6586,27 @@
       </c>
       <c r="B107" s="7">
         <f t="shared" si="22"/>
-        <v>15709099088952.717</v>
-      </c>
-      <c r="C107" s="8">
+        <v>188645059.29765567</v>
+      </c>
+      <c r="C107" s="67">
         <f t="shared" si="12"/>
-        <v>7854549544.4763584</v>
+        <v>377290.11859531136</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="13"/>
-        <v>3927274772238.1792</v>
+        <v>26410308.301671796</v>
       </c>
       <c r="E107" s="6">
         <f t="shared" si="14"/>
-        <v>1963637386119.0896</v>
-      </c>
-      <c r="F107" s="8">
+        <v>15091604.743812457</v>
+      </c>
+      <c r="F107" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G107" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I107" s="5">
         <v>99</v>
@@ -6517,27 +6642,27 @@
       </c>
       <c r="B108" s="7">
         <f t="shared" si="22"/>
-        <v>19636373861190.895</v>
-      </c>
-      <c r="C108" s="8">
+        <v>215055367.59932747</v>
+      </c>
+      <c r="C108" s="67">
         <f t="shared" si="12"/>
-        <v>9818186930.5954475</v>
+        <v>430110.73519865493</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="13"/>
-        <v>4909093465297.7236</v>
+        <v>30107751.463905852</v>
       </c>
       <c r="E108" s="6">
         <f t="shared" si="14"/>
-        <v>2454546732648.8618</v>
-      </c>
-      <c r="F108" s="8">
+        <v>17204429.407946199</v>
+      </c>
+      <c r="F108" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G108" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I108" s="5">
         <v>100</v>
@@ -6573,27 +6698,27 @@
       </c>
       <c r="B109" s="7">
         <f t="shared" si="22"/>
-        <v>24545467326488.617</v>
-      </c>
-      <c r="C109" s="8">
+        <v>245163119.06323332</v>
+      </c>
+      <c r="C109" s="67">
         <f t="shared" si="12"/>
-        <v>12272733663.244308</v>
+        <v>490326.23812646663</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="13"/>
-        <v>6136366831622.1543</v>
+        <v>34322836.668852665</v>
       </c>
       <c r="E109" s="6">
         <f t="shared" si="14"/>
-        <v>3068183415811.0771</v>
-      </c>
-      <c r="F109" s="8">
+        <v>19613049.525058664</v>
+      </c>
+      <c r="F109" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G109" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I109" s="5">
         <v>101</v>
@@ -6629,27 +6754,27 @@
       </c>
       <c r="B110" s="7">
         <f t="shared" si="22"/>
-        <v>30681834158110.773</v>
-      </c>
-      <c r="C110" s="8">
+        <v>279485955.732086</v>
+      </c>
+      <c r="C110" s="67">
         <f t="shared" si="12"/>
-        <v>15340917079.055387</v>
+        <v>558971.91146417195</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="13"/>
-        <v>7670458539527.6934</v>
+        <v>39128033.802492037</v>
       </c>
       <c r="E110" s="6">
         <f t="shared" si="14"/>
-        <v>3835229269763.8467</v>
-      </c>
-      <c r="F110" s="8">
+        <v>22358876.458566878</v>
+      </c>
+      <c r="F110" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G110" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I110" s="5">
         <v>102</v>
@@ -6685,27 +6810,27 @@
       </c>
       <c r="B111" s="7">
         <f t="shared" si="22"/>
-        <v>38352292697638.469</v>
-      </c>
-      <c r="C111" s="8">
+        <v>318613989.53457803</v>
+      </c>
+      <c r="C111" s="67">
         <f t="shared" si="12"/>
-        <v>19176146348.819233</v>
+        <v>637227.97906915611</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="13"/>
-        <v>9588073174409.6152</v>
+        <v>44605958.534840934</v>
       </c>
       <c r="E111" s="6">
         <f t="shared" si="14"/>
-        <v>4794036587204.8076</v>
-      </c>
-      <c r="F111" s="8">
+        <v>25489119.162766244</v>
+      </c>
+      <c r="F111" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999996</v>
+        <v>8</v>
       </c>
       <c r="G111" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I111" s="5">
         <v>103</v>
@@ -6741,27 +6866,27 @@
       </c>
       <c r="B112" s="7">
         <f t="shared" si="22"/>
-        <v>47940365872048.086</v>
-      </c>
-      <c r="C112" s="8">
+        <v>363219948.06941897</v>
+      </c>
+      <c r="C112" s="67">
         <f t="shared" si="12"/>
-        <v>23970182936.024044</v>
+        <v>726439.89613883791</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="13"/>
-        <v>11985091468012.021</v>
+        <v>50850792.729718663</v>
       </c>
       <c r="E112" s="6">
         <f t="shared" si="14"/>
-        <v>5992545734006.0107</v>
-      </c>
-      <c r="F112" s="8">
+        <v>29057595.845553517</v>
+      </c>
+      <c r="F112" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G112" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I112" s="5">
         <v>104</v>
@@ -6797,27 +6922,27 @@
       </c>
       <c r="B113" s="7">
         <f t="shared" si="22"/>
-        <v>59925457340060.109</v>
-      </c>
-      <c r="C113" s="8">
+        <v>414070740.79913765</v>
+      </c>
+      <c r="C113" s="67">
         <f t="shared" si="12"/>
-        <v>29962728670.030056</v>
+        <v>828141.48159827525</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="13"/>
-        <v>14981364335015.029</v>
+        <v>57969903.711879268</v>
       </c>
       <c r="E113" s="6">
         <f t="shared" si="14"/>
-        <v>7490682167507.5146</v>
-      </c>
-      <c r="F113" s="8">
+        <v>33125659.26393101</v>
+      </c>
+      <c r="F113" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G113" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I113" s="5">
         <v>105</v>
@@ -6853,27 +6978,27 @@
       </c>
       <c r="B114" s="7">
         <f t="shared" si="22"/>
-        <v>74906821675075.141</v>
-      </c>
-      <c r="C114" s="8">
+        <v>472040644.51101691</v>
+      </c>
+      <c r="C114" s="67">
         <f t="shared" si="12"/>
-        <v>37453410837.537567</v>
+        <v>944081.2890220338</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="13"/>
-        <v>18726705418768.785</v>
+        <v>66085690.231542379</v>
       </c>
       <c r="E114" s="6">
         <f t="shared" si="14"/>
-        <v>9363352709384.3926</v>
-      </c>
-      <c r="F114" s="8">
+        <v>37763251.560881354</v>
+      </c>
+      <c r="F114" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G114" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I114" s="5">
         <v>106</v>
@@ -6909,27 +7034,27 @@
       </c>
       <c r="B115" s="7">
         <f t="shared" si="22"/>
-        <v>93633527093843.922</v>
-      </c>
-      <c r="C115" s="8">
+        <v>538126334.74255931</v>
+      </c>
+      <c r="C115" s="67">
         <f t="shared" si="12"/>
-        <v>46816763546.921959</v>
+        <v>1076252.6694851187</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="13"/>
-        <v>23408381773460.977</v>
+        <v>75337686.863958314</v>
       </c>
       <c r="E115" s="6">
         <f t="shared" si="14"/>
-        <v>11704190886730.488</v>
-      </c>
-      <c r="F115" s="8">
+        <v>43050106.779404745</v>
+      </c>
+      <c r="F115" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999996</v>
+        <v>8</v>
       </c>
       <c r="G115" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I115" s="5">
         <v>107</v>
@@ -6965,27 +7090,27 @@
       </c>
       <c r="B116" s="7">
         <f t="shared" si="22"/>
-        <v>117041908867304.91</v>
-      </c>
-      <c r="C116" s="8">
+        <v>613464021.60651767</v>
+      </c>
+      <c r="C116" s="67">
         <f t="shared" si="12"/>
-        <v>58520954433.652451</v>
+        <v>1226928.0432130354</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="13"/>
-        <v>29260477216826.223</v>
+        <v>85884963.024912491</v>
       </c>
       <c r="E116" s="6">
         <f t="shared" si="14"/>
-        <v>14630238608413.111</v>
-      </c>
-      <c r="F116" s="8">
+        <v>49077121.728521422</v>
+      </c>
+      <c r="F116" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G116" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I116" s="5">
         <v>108</v>
@@ -7021,27 +7146,27 @@
       </c>
       <c r="B117" s="7">
         <f t="shared" si="22"/>
-        <v>146302386084131.12</v>
-      </c>
-      <c r="C117" s="8">
+        <v>699348984.63143015</v>
+      </c>
+      <c r="C117" s="67">
         <f t="shared" si="12"/>
-        <v>73151193042.065567</v>
+        <v>1398697.9692628602</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="13"/>
-        <v>36575596521032.789</v>
+        <v>97908857.84840022</v>
       </c>
       <c r="E117" s="6">
         <f t="shared" si="14"/>
-        <v>18287798260516.395</v>
-      </c>
-      <c r="F117" s="8">
+        <v>55947918.770514414</v>
+      </c>
+      <c r="F117" s="65">
         <f t="shared" si="15"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G117" s="8">
         <f t="shared" si="16"/>
-        <v>25.000000000000007</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I117" s="5">
         <v>109</v>
@@ -7077,27 +7202,27 @@
       </c>
       <c r="B118" s="7">
         <f t="shared" si="22"/>
-        <v>182877982605163.91</v>
-      </c>
-      <c r="C118" s="8">
+        <v>797257842.47983038</v>
+      </c>
+      <c r="C118" s="67">
         <f t="shared" si="12"/>
-        <v>91438991302.581955</v>
+        <v>1594515.6849596607</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="13"/>
-        <v>45719495651290.977</v>
+        <v>111616097.94717626</v>
       </c>
       <c r="E118" s="6">
         <f t="shared" si="14"/>
-        <v>22859747825645.488</v>
-      </c>
-      <c r="F118" s="8">
+        <v>63780627.398386434</v>
+      </c>
+      <c r="F118" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G118" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I118" s="5">
         <v>110</v>
@@ -7133,27 +7258,27 @@
       </c>
       <c r="B119" s="7">
         <f t="shared" si="22"/>
-        <v>228597478256454.87</v>
-      </c>
-      <c r="C119" s="8">
+        <v>908873940.4270066</v>
+      </c>
+      <c r="C119" s="67">
         <f t="shared" si="12"/>
-        <v>114298739128.22743</v>
+        <v>1817747.8808540131</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="13"/>
-        <v>57149369564113.711</v>
+        <v>127242351.65978093</v>
       </c>
       <c r="E119" s="6">
         <f t="shared" si="14"/>
-        <v>28574684782056.855</v>
-      </c>
-      <c r="F119" s="8">
+        <v>72709915.234160513</v>
+      </c>
+      <c r="F119" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G119" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I119" s="5">
         <v>111</v>
@@ -7189,27 +7314,27 @@
       </c>
       <c r="B120" s="7">
         <f t="shared" si="22"/>
-        <v>285746847820568.56</v>
-      </c>
-      <c r="C120" s="8">
+        <v>1036116292.0867876</v>
+      </c>
+      <c r="C120" s="67">
         <f t="shared" si="12"/>
-        <v>142873423910.28427</v>
+        <v>2072232.5841735753</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="13"/>
-        <v>71436711955142.141</v>
+        <v>145056280.89215025</v>
       </c>
       <c r="E120" s="6">
         <f t="shared" si="14"/>
-        <v>35718355977571.07</v>
-      </c>
-      <c r="F120" s="8">
+        <v>82889303.366943017</v>
+      </c>
+      <c r="F120" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G120" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="I120" s="5">
         <v>112</v>
@@ -7245,27 +7370,27 @@
       </c>
       <c r="B121" s="7">
         <f t="shared" si="22"/>
-        <v>357183559775710.69</v>
-      </c>
-      <c r="C121" s="8">
+        <v>1181172572.9789379</v>
+      </c>
+      <c r="C121" s="67">
         <f t="shared" si="12"/>
-        <v>178591779887.85535</v>
+        <v>2362345.1459578755</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="13"/>
-        <v>89295889943927.672</v>
+        <v>165364160.21705133</v>
       </c>
       <c r="E121" s="6">
         <f t="shared" si="14"/>
-        <v>44647944971963.836</v>
-      </c>
-      <c r="F121" s="8">
+        <v>94493805.838315025</v>
+      </c>
+      <c r="F121" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G121" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I121" s="5">
         <v>113</v>
@@ -7301,27 +7426,27 @@
       </c>
       <c r="B122" s="7">
         <f t="shared" si="22"/>
-        <v>446479449719638.37</v>
-      </c>
-      <c r="C122" s="8">
+        <v>1346536733.1959891</v>
+      </c>
+      <c r="C122" s="67">
         <f t="shared" si="12"/>
-        <v>223239724859.81918</v>
+        <v>2693073.4663919783</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="13"/>
-        <v>111619862429909.59</v>
+        <v>188515142.6474385</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="14"/>
-        <v>55809931214954.797</v>
-      </c>
-      <c r="F122" s="8">
+        <v>107722938.65567912</v>
+      </c>
+      <c r="F122" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G122" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I122" s="5">
         <v>114</v>
@@ -7357,27 +7482,27 @@
       </c>
       <c r="B123" s="7">
         <f t="shared" si="22"/>
-        <v>558099312149548</v>
-      </c>
-      <c r="C123" s="8">
+        <v>1535051875.8434277</v>
+      </c>
+      <c r="C123" s="67">
         <f t="shared" si="12"/>
-        <v>279049656074.77399</v>
+        <v>3070103.7516868552</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="13"/>
-        <v>139524828037386.98</v>
+        <v>214907262.6180799</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" si="14"/>
-        <v>69762414018693.492</v>
-      </c>
-      <c r="F123" s="8">
+        <v>122804150.06747422</v>
+      </c>
+      <c r="F123" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>8</v>
       </c>
       <c r="G123" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I123" s="5">
         <v>115</v>
@@ -7413,27 +7538,27 @@
       </c>
       <c r="B124" s="7">
         <f t="shared" si="22"/>
-        <v>697624140186935</v>
-      </c>
-      <c r="C124" s="8">
+        <v>1749959138.4615076</v>
+      </c>
+      <c r="C124" s="67">
         <f t="shared" si="12"/>
-        <v>348812070093.46753</v>
+        <v>3499918.2769230152</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="13"/>
-        <v>174406035046733.75</v>
+        <v>244994279.38461107</v>
       </c>
       <c r="E124" s="6">
         <f t="shared" si="14"/>
-        <v>87203017523366.875</v>
-      </c>
-      <c r="F124" s="8">
+        <v>139996731.0769206</v>
+      </c>
+      <c r="F124" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G124" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I124" s="5">
         <v>116</v>
@@ -7469,27 +7594,27 @@
       </c>
       <c r="B125" s="7">
         <f t="shared" si="22"/>
-        <v>872030175233668.75</v>
-      </c>
-      <c r="C125" s="8">
+        <v>1994953417.8461187</v>
+      </c>
+      <c r="C125" s="67">
         <f t="shared" si="12"/>
-        <v>436015087616.83435</v>
+        <v>3989906.8356922376</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="13"/>
-        <v>218007543808417.19</v>
+        <v>279293478.49845666</v>
       </c>
       <c r="E125" s="6">
         <f t="shared" si="14"/>
-        <v>109003771904208.59</v>
-      </c>
-      <c r="F125" s="8">
+        <v>159596273.42768952</v>
+      </c>
+      <c r="F125" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G125" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I125" s="5">
         <v>117</v>
@@ -7525,27 +7650,27 @@
       </c>
       <c r="B126" s="7">
         <f t="shared" si="22"/>
-        <v>1090037719042086</v>
-      </c>
-      <c r="C126" s="8">
+        <v>2274246896.3445754</v>
+      </c>
+      <c r="C126" s="67">
         <f t="shared" si="12"/>
-        <v>545018859521.04303</v>
+        <v>4548493.7926891511</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="13"/>
-        <v>272509429760521.5</v>
+        <v>318394565.48824066</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" si="14"/>
-        <v>136254714880260.75</v>
-      </c>
-      <c r="F126" s="8">
+        <v>181939751.70756605</v>
+      </c>
+      <c r="F126" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G126" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="I126" s="5">
         <v>118</v>
@@ -7581,27 +7706,27 @@
       </c>
       <c r="B127" s="7">
         <f t="shared" si="22"/>
-        <v>1362547148802607.5</v>
-      </c>
-      <c r="C127" s="8">
+        <v>2592641461.8328161</v>
+      </c>
+      <c r="C127" s="67">
         <f t="shared" si="12"/>
-        <v>681273574401.30371</v>
+        <v>5185282.9236656325</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="13"/>
-        <v>340636787200651.81</v>
+        <v>362969804.65659428</v>
       </c>
       <c r="E127" s="6">
         <f t="shared" si="14"/>
-        <v>170318393600325.91</v>
-      </c>
-      <c r="F127" s="8">
+        <v>207411316.94662532</v>
+      </c>
+      <c r="F127" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999996</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G127" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I127" s="5">
         <v>119</v>
@@ -7637,27 +7762,27 @@
       </c>
       <c r="B128" s="7">
         <f t="shared" si="22"/>
-        <v>1703183936003259.2</v>
-      </c>
-      <c r="C128" s="8">
+        <v>2955611266.4894104</v>
+      </c>
+      <c r="C128" s="67">
         <f t="shared" si="12"/>
-        <v>851591968001.62964</v>
+        <v>5911222.5329788206</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="13"/>
-        <v>425795984000814.81</v>
+        <v>413785577.30851746</v>
       </c>
       <c r="E128" s="6">
         <f t="shared" si="14"/>
-        <v>212897992000407.41</v>
-      </c>
-      <c r="F128" s="8">
+        <v>236448901.3191528</v>
+      </c>
+      <c r="F128" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G128" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="I128" s="5">
         <v>120</v>
@@ -7693,27 +7818,27 @@
       </c>
       <c r="B129" s="7">
         <f t="shared" si="22"/>
-        <v>2128979920004074</v>
-      </c>
-      <c r="C129" s="8">
+        <v>3369396843.7979279</v>
+      </c>
+      <c r="C129" s="67">
         <f t="shared" si="12"/>
-        <v>1064489960002.037</v>
+        <v>6738793.6875958554</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="13"/>
-        <v>532244980001018.5</v>
+        <v>471715558.13170987</v>
       </c>
       <c r="E129" s="6">
         <f t="shared" si="14"/>
-        <v>266122490000509.25</v>
-      </c>
-      <c r="F129" s="8">
+        <v>269551747.50383419</v>
+      </c>
+      <c r="F129" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G129" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7722,27 +7847,27 @@
       </c>
       <c r="B130" s="7">
         <f t="shared" si="22"/>
-        <v>2661224900005092.5</v>
-      </c>
-      <c r="C130" s="8">
+        <v>3841112401.9296379</v>
+      </c>
+      <c r="C130" s="67">
         <f t="shared" si="12"/>
-        <v>1330612450002.5461</v>
+        <v>7682224.8038592758</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="13"/>
-        <v>665306225001273</v>
+        <v>537755736.27014935</v>
       </c>
       <c r="E130" s="6">
         <f t="shared" si="14"/>
-        <v>332653112500636.5</v>
-      </c>
-      <c r="F130" s="8">
+        <v>307288992.15437102</v>
+      </c>
+      <c r="F130" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999996</v>
+        <v>8</v>
       </c>
       <c r="G130" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7751,27 +7876,27 @@
       </c>
       <c r="B131" s="7">
         <f t="shared" si="22"/>
-        <v>3326531125006365.5</v>
-      </c>
-      <c r="C131" s="8">
+        <v>4378868138.1997871</v>
+      </c>
+      <c r="C131" s="67">
         <f t="shared" si="12"/>
-        <v>1663265562503.1829</v>
+        <v>8757736.2763995752</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" si="13"/>
-        <v>831632781251591.37</v>
+        <v>613041539.34797037</v>
       </c>
       <c r="E131" s="6">
         <f t="shared" si="14"/>
-        <v>415816390625795.69</v>
-      </c>
-      <c r="F131" s="8">
+        <v>350309451.05598301</v>
+      </c>
+      <c r="F131" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G131" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000004</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7780,27 +7905,27 @@
       </c>
       <c r="B132" s="7">
         <f t="shared" si="22"/>
-        <v>4158163906257957</v>
-      </c>
-      <c r="C132" s="8">
+        <v>4991909677.5477571</v>
+      </c>
+      <c r="C132" s="67">
         <f t="shared" si="12"/>
-        <v>2079081953128.9785</v>
+        <v>9983819.355095515</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="13"/>
-        <v>1039540976564489.1</v>
+        <v>698867354.856686</v>
       </c>
       <c r="E132" s="6">
         <f t="shared" si="14"/>
-        <v>519770488282244.56</v>
-      </c>
-      <c r="F132" s="8">
+        <v>399352774.20382065</v>
+      </c>
+      <c r="F132" s="65">
         <f t="shared" si="15"/>
-        <v>12.499999999999998</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G132" s="8">
         <f t="shared" si="16"/>
-        <v>24.999999999999996</v>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7809,27 +7934,27 @@
       </c>
       <c r="B133" s="7">
         <f t="shared" si="22"/>
-        <v>5197704882822446</v>
-      </c>
-      <c r="C133" s="8">
+        <v>5690777032.4044428</v>
+      </c>
+      <c r="C133" s="67">
         <f t="shared" si="12"/>
-        <v>2598852441411.2231</v>
+        <v>11381554.064808886</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="13"/>
-        <v>1299426220705611.5</v>
+        <v>796708784.53662205</v>
       </c>
       <c r="E133" s="6">
         <f t="shared" si="14"/>
-        <v>649713110352805.75</v>
-      </c>
-      <c r="F133" s="8">
+        <v>455262162.59235543</v>
+      </c>
+      <c r="F133" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G133" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7838,27 +7963,27 @@
       </c>
       <c r="B134" s="7">
         <f t="shared" si="22"/>
-        <v>6497131103528058</v>
-      </c>
-      <c r="C134" s="8">
+        <v>6487485816.9410648</v>
+      </c>
+      <c r="C134" s="67">
         <f t="shared" si="12"/>
-        <v>3248565551764.0288</v>
+        <v>12974971.63388213</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="13"/>
-        <v>1624282775882014.5</v>
+        <v>908248014.37174916</v>
       </c>
       <c r="E134" s="6">
         <f t="shared" si="14"/>
-        <v>812141387941007.25</v>
-      </c>
-      <c r="F134" s="8">
+        <v>518998865.35528523</v>
+      </c>
+      <c r="F134" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G134" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7867,27 +7992,27 @@
       </c>
       <c r="B135" s="7">
         <f t="shared" si="22"/>
-        <v>8121413879410072</v>
-      </c>
-      <c r="C135" s="8">
+        <v>7395733831.3128138</v>
+      </c>
+      <c r="C135" s="67">
         <f t="shared" si="12"/>
-        <v>4060706939705.0361</v>
+        <v>14791467.662625628</v>
       </c>
       <c r="D135" s="6">
         <f t="shared" si="13"/>
-        <v>2030353469852518</v>
+        <v>1035402736.3837941</v>
       </c>
       <c r="E135" s="6">
         <f t="shared" si="14"/>
-        <v>1015176734926259</v>
-      </c>
-      <c r="F135" s="8">
+        <v>591658706.50502515</v>
+      </c>
+      <c r="F135" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G135" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7896,27 +8021,27 @@
       </c>
       <c r="B136" s="7">
         <f t="shared" si="22"/>
-        <v>1.015176734926259E+16</v>
-      </c>
-      <c r="C136" s="8">
+        <v>8431136567.6966076</v>
+      </c>
+      <c r="C136" s="67">
         <f t="shared" si="12"/>
-        <v>5075883674631.2949</v>
+        <v>16862273.135393213</v>
       </c>
       <c r="D136" s="6">
         <f t="shared" si="13"/>
-        <v>2537941837315647.5</v>
+        <v>1180359119.4775252</v>
       </c>
       <c r="E136" s="6">
         <f t="shared" si="14"/>
-        <v>1268970918657823.7</v>
-      </c>
-      <c r="F136" s="8">
+        <v>674490925.41572869</v>
+      </c>
+      <c r="F136" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="G136" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7925,27 +8050,27 @@
       </c>
       <c r="B137" s="7">
         <f t="shared" si="22"/>
-        <v>1.2689709186578238E+16</v>
-      </c>
-      <c r="C137" s="8">
+        <v>9611495687.1741333</v>
+      </c>
+      <c r="C137" s="67">
         <f t="shared" si="12"/>
-        <v>6344854593289.1191</v>
+        <v>19222991.374348268</v>
       </c>
       <c r="D137" s="6">
         <f t="shared" si="13"/>
-        <v>3172427296644559.5</v>
+        <v>1345609396.2043788</v>
       </c>
       <c r="E137" s="6">
         <f t="shared" si="14"/>
-        <v>1586213648322279.7</v>
-      </c>
-      <c r="F137" s="8">
+        <v>768919654.97393072</v>
+      </c>
+      <c r="F137" s="65">
         <f t="shared" si="15"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G137" s="8">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7954,27 +8079,27 @@
       </c>
       <c r="B138" s="7">
         <f t="shared" si="22"/>
-        <v>1.5862136483222798E+16</v>
-      </c>
-      <c r="C138" s="8">
-        <f t="shared" ref="C138:C145" si="24">B138/2000</f>
-        <v>7931068241611.3994</v>
+        <v>10957105083.378511</v>
+      </c>
+      <c r="C138" s="67">
+        <f t="shared" ref="C138:C145" si="24">B138/500</f>
+        <v>21914210.166757021</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" ref="D138:D145" si="25">0.5*C138/100*100000</f>
-        <v>3965534120805700</v>
+        <f t="shared" ref="D138:D145" si="25">0.07*C138/100*100000</f>
+        <v>1533994711.6729915</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" ref="E138:E145" si="26">0.25*C138/100*100000</f>
-        <v>1982767060402850</v>
-      </c>
-      <c r="F138" s="8">
+        <f t="shared" ref="E138:E145" si="26">0.04*C138/100*100000</f>
+        <v>876568406.67028081</v>
+      </c>
+      <c r="F138" s="65">
         <f t="shared" ref="F138:F145" si="27">E138/B138*100</f>
-        <v>12.500000000000004</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G138" s="8">
         <f t="shared" ref="G138:G145" si="28">(D138/B138)*100</f>
-        <v>25.000000000000007</v>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7983,27 +8108,27 @@
       </c>
       <c r="B139" s="7">
         <f t="shared" ref="B139:B145" si="29">B138+D138</f>
-        <v>1.9827670604028496E+16</v>
-      </c>
-      <c r="C139" s="8">
+        <v>12491099795.051502</v>
+      </c>
+      <c r="C139" s="67">
         <f t="shared" si="24"/>
-        <v>9913835302014.248</v>
+        <v>24982199.590103004</v>
       </c>
       <c r="D139" s="6">
         <f t="shared" si="25"/>
-        <v>4956917651007124</v>
+        <v>1748753971.3072102</v>
       </c>
       <c r="E139" s="6">
         <f t="shared" si="26"/>
-        <v>2478458825503562</v>
-      </c>
-      <c r="F139" s="8">
+        <v>999287983.60412025</v>
+      </c>
+      <c r="F139" s="65">
         <f t="shared" si="27"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G139" s="8">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8012,27 +8137,27 @@
       </c>
       <c r="B140" s="7">
         <f t="shared" si="29"/>
-        <v>2.478458825503562E+16</v>
-      </c>
-      <c r="C140" s="8">
+        <v>14239853766.358713</v>
+      </c>
+      <c r="C140" s="67">
         <f t="shared" si="24"/>
-        <v>12392294127517.811</v>
+        <v>28479707.532717425</v>
       </c>
       <c r="D140" s="6">
         <f t="shared" si="25"/>
-        <v>6196147063758905</v>
+        <v>1993579527.29022</v>
       </c>
       <c r="E140" s="6">
         <f t="shared" si="26"/>
-        <v>3098073531879452.5</v>
-      </c>
-      <c r="F140" s="8">
+        <v>1139188301.308697</v>
+      </c>
+      <c r="F140" s="65">
         <f t="shared" si="27"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G140" s="8">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8041,27 +8166,27 @@
       </c>
       <c r="B141" s="7">
         <f t="shared" si="29"/>
-        <v>3.0980735318794524E+16</v>
-      </c>
-      <c r="C141" s="8">
+        <v>16233433293.648933</v>
+      </c>
+      <c r="C141" s="67">
         <f t="shared" si="24"/>
-        <v>15490367659397.262</v>
+        <v>32466866.587297868</v>
       </c>
       <c r="D141" s="6">
         <f t="shared" si="25"/>
-        <v>7745183829698631</v>
+        <v>2272680661.1108508</v>
       </c>
       <c r="E141" s="6">
         <f t="shared" si="26"/>
-        <v>3872591914849315.5</v>
-      </c>
-      <c r="F141" s="8">
+        <v>1298674663.4919147</v>
+      </c>
+      <c r="F141" s="65">
         <f t="shared" si="27"/>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="G141" s="8">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8070,27 +8195,27 @@
       </c>
       <c r="B142" s="7">
         <f t="shared" si="29"/>
-        <v>3.8725919148493152E+16</v>
-      </c>
-      <c r="C142" s="8">
+        <v>18506113954.759785</v>
+      </c>
+      <c r="C142" s="67">
         <f t="shared" si="24"/>
-        <v>19362959574246.574</v>
+        <v>37012227.909519568</v>
       </c>
       <c r="D142" s="6">
         <f t="shared" si="25"/>
-        <v>9681479787123286</v>
+        <v>2590855953.6663699</v>
       </c>
       <c r="E142" s="6">
         <f t="shared" si="26"/>
-        <v>4840739893561643</v>
-      </c>
-      <c r="F142" s="8">
+        <v>1480489116.3807828</v>
+      </c>
+      <c r="F142" s="65">
         <f t="shared" si="27"/>
-        <v>12.499999999999996</v>
+        <v>8</v>
       </c>
       <c r="G142" s="8">
         <f t="shared" si="28"/>
-        <v>24.999999999999993</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8099,27 +8224,27 @@
       </c>
       <c r="B143" s="7">
         <f t="shared" si="29"/>
-        <v>4.840739893561644E+16</v>
-      </c>
-      <c r="C143" s="8">
+        <v>21096969908.426155</v>
+      </c>
+      <c r="C143" s="67">
         <f t="shared" si="24"/>
-        <v>24203699467808.219</v>
+        <v>42193939.816852309</v>
       </c>
       <c r="D143" s="6">
         <f t="shared" si="25"/>
-        <v>1.210184973390411E+16</v>
+        <v>2953575787.1796622</v>
       </c>
       <c r="E143" s="6">
         <f t="shared" si="26"/>
-        <v>6050924866952055</v>
-      </c>
-      <c r="F143" s="8">
+        <v>1687757592.6740923</v>
+      </c>
+      <c r="F143" s="65">
         <f t="shared" si="27"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G143" s="8">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8128,27 +8253,27 @@
       </c>
       <c r="B144" s="7">
         <f t="shared" si="29"/>
-        <v>6.0509248669520552E+16</v>
-      </c>
-      <c r="C144" s="8">
+        <v>24050545695.605816</v>
+      </c>
+      <c r="C144" s="67">
         <f t="shared" si="24"/>
-        <v>30254624334760.277</v>
+        <v>48101091.391211629</v>
       </c>
       <c r="D144" s="6">
         <f t="shared" si="25"/>
-        <v>1.512731216738014E+16</v>
+        <v>3367076397.3848143</v>
       </c>
       <c r="E144" s="6">
         <f t="shared" si="26"/>
-        <v>7563656083690070</v>
-      </c>
-      <c r="F144" s="8">
+        <v>1924043655.6484652</v>
+      </c>
+      <c r="F144" s="65">
         <f t="shared" si="27"/>
-        <v>12.500000000000004</v>
+        <v>8</v>
       </c>
       <c r="G144" s="8">
         <f t="shared" si="28"/>
-        <v>25.000000000000007</v>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8157,27 +8282,27 @@
       </c>
       <c r="B145" s="7">
         <f t="shared" si="29"/>
-        <v>7.5636560836900688E+16</v>
-      </c>
-      <c r="C145" s="8">
+        <v>27417622092.990631</v>
+      </c>
+      <c r="C145" s="67">
         <f t="shared" si="24"/>
-        <v>37818280418450.344</v>
+        <v>54835244.185981259</v>
       </c>
       <c r="D145" s="6">
         <f t="shared" si="25"/>
-        <v>1.8909140209225172E+16</v>
+        <v>3838467093.0186882</v>
       </c>
       <c r="E145" s="6">
         <f t="shared" si="26"/>
-        <v>9454570104612586</v>
-      </c>
-      <c r="F145" s="8">
+        <v>2193409767.43925</v>
+      </c>
+      <c r="F145" s="65">
         <f t="shared" si="27"/>
-        <v>12.5</v>
+        <v>7.9999999999999991</v>
       </c>
       <c r="G145" s="8">
         <f t="shared" si="28"/>
-        <v>25</v>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8187,9 +8312,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8198,264 +8324,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10">
-        <v>1979.79</v>
-      </c>
-      <c r="C1" s="17">
+      <c r="B2" s="10">
+        <v>1.0884</v>
+      </c>
+      <c r="C2" s="17">
         <v>1.06833</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E2" s="21">
         <v>5000</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="13"/>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>J2*100000</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10">
-        <v>1975.04</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B3" s="10">
+        <v>1.08901</v>
+      </c>
+      <c r="C3" s="17">
         <v>1.0703800000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="19">
-        <f>E1</f>
+      <c r="E3" s="19">
+        <f>E2</f>
         <v>5000</v>
       </c>
-      <c r="F2" s="19">
-        <f>D2*E2/100</f>
+      <c r="F3" s="19">
+        <f>D3*E3/100</f>
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="I3" s="13"/>
+      <c r="K3">
+        <f>0.09*K2/100</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9">
-        <f>(B2-B1)/B1*100</f>
-        <v>-0.23992443643012645</v>
-      </c>
-      <c r="C3" s="18">
-        <f>(C1-C2)/C1*100</f>
+      <c r="B4" s="9">
+        <f>(B3-B2)/B2*100</f>
+        <v>5.6045571481073087E-2</v>
+      </c>
+      <c r="C4" s="18">
+        <f>(C2-C3)/C2*100</f>
         <v>-0.19188827422239452</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
-        <f t="shared" ref="E3:E21" si="0">E2</f>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:E22" si="0">E3</f>
         <v>5000</v>
       </c>
-      <c r="F3" s="19">
-        <f t="shared" ref="F3:F21" si="1">D3*E3/100</f>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F22" si="1">D4*E4/100</f>
         <v>100</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="e">
-        <f>#REF!*100000*B3/100</f>
+      <c r="B5" s="9">
+        <f>B1*100000*B4/100</f>
+        <v>56.045571481073083</v>
+      </c>
+      <c r="C5" s="18" t="e">
+        <f>#REF!*100000*C4/100</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="18" t="e">
-        <f>#REF!*100000*C3/100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="D5" s="1">
+      <c r="H5" s="23"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="D6" s="1">
+      <c r="H6" s="23">
+        <f>0.06*1000000/100</f>
+        <v>600</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7">
+        <f>32.5/8</f>
+        <v>4.0625</v>
+      </c>
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="1">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
         <f>1080/1920</f>
         <v>0.5625</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1920</v>
       </c>
-      <c r="C8">
-        <f>A8*B8</f>
+      <c r="C9">
+        <f>A9*B9</f>
         <v>1080</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <f t="shared" ref="A9:A18" si="2">1080/1920</f>
+      <c r="H9" s="26"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <f t="shared" ref="A10:A19" si="2">1080/1920</f>
         <v>0.5625</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1680</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C15" si="3">A9*B9</f>
+      <c r="C10">
+        <f t="shared" ref="C10:C16" si="3">A10*B10</f>
         <v>945</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>0.5625</v>
-      </c>
-      <c r="B10" s="15">
-        <v>1600</v>
-      </c>
-      <c r="C10" s="15">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="19">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
-      <c r="B11">
-        <v>1440</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>810</v>
+      <c r="B11" s="15">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
@@ -8463,24 +8591,23 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
       <c r="B12">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>787.5</v>
+        <v>810</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
@@ -8488,23 +8615,24 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>500</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
       <c r="B13">
-        <v>1366</v>
+        <v>1400</v>
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>768.375</v>
+        <v>787.5</v>
       </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
@@ -8512,24 +8640,23 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
-      <c r="B14" s="15">
-        <v>1360</v>
-      </c>
-      <c r="C14" s="15">
-        <f t="shared" si="3"/>
-        <v>765</v>
+      <c r="B14">
+        <v>1366</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>768.375</v>
       </c>
       <c r="D14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
@@ -8537,23 +8664,24 @@
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>600</v>
+      </c>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
-      <c r="B15">
-        <v>1280</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>720</v>
+      <c r="B15" s="15">
+        <v>1360</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" si="3"/>
+        <v>765</v>
       </c>
       <c r="D15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="0"/>
@@ -8561,16 +8689,23 @@
       </c>
       <c r="F15" s="19">
         <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
+      <c r="B16">
+        <v>1280</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
@@ -8578,7 +8713,7 @@
       </c>
       <c r="F16" s="19">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8587,7 +8722,7 @@
         <v>0.5625</v>
       </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
@@ -8595,7 +8730,7 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8604,7 +8739,7 @@
         <v>0.5625</v>
       </c>
       <c r="D18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="0"/>
@@ -8612,12 +8747,16 @@
       </c>
       <c r="F18" s="19">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
       <c r="D19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="0"/>
@@ -8625,12 +8764,12 @@
       </c>
       <c r="F19" s="19">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="D20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="0"/>
@@ -8638,18 +8777,31 @@
       </c>
       <c r="F20" s="19">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="19">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
@@ -8668,13 +8820,13 @@
       <selection activeCell="D2" sqref="D2:D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
     <col min="5" max="5" width="13" style="28" customWidth="1"/>
     <col min="6" max="6" width="13" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="29"/>
+    <col min="7" max="7" width="8.90625" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -10974,7 +11126,7 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="28">
-        <f t="shared" ref="B113" si="7">B112+C112+E112</f>
+        <f>B112+C112+E112</f>
         <v>648400.46576483257</v>
       </c>
       <c r="C113">
@@ -10984,15 +11136,15 @@
         <v>3.5</v>
       </c>
       <c r="E113" s="28">
-        <f t="shared" ref="E113:E120" si="8">B113*D113/100/12</f>
+        <f t="shared" ref="E113:E120" si="7">B113*D113/100/12</f>
         <v>1891.1680251474281</v>
       </c>
       <c r="F113" s="29">
-        <f t="shared" ref="F113:F120" si="9">B113*3.5</f>
+        <f t="shared" ref="F113:F120" si="8">B113*3.5</f>
         <v>2269401.6301769139</v>
       </c>
       <c r="G113" s="29">
-        <f t="shared" ref="G113:G120" si="10">E113*3.5</f>
+        <f t="shared" ref="G113:G120" si="9">E113*3.5</f>
         <v>6619.0880880159984</v>
       </c>
     </row>
@@ -11008,21 +11160,21 @@
         <v>3.5</v>
       </c>
       <c r="E114" s="28">
+        <f t="shared" si="7"/>
+        <v>1908.3505985541085</v>
+      </c>
+      <c r="F114" s="29">
         <f t="shared" si="8"/>
-        <v>1908.3505985541085</v>
-      </c>
-      <c r="F114" s="29">
+        <v>2290020.71826493</v>
+      </c>
+      <c r="G114" s="29">
         <f t="shared" si="9"/>
-        <v>2290020.71826493</v>
-      </c>
-      <c r="G114" s="29">
-        <f t="shared" si="10"/>
         <v>6679.2270949393796</v>
       </c>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="28">
-        <f t="shared" ref="B115:B120" si="11">B114+C114+E114</f>
+        <f t="shared" ref="B115:B120" si="10">B114+C114+E114</f>
         <v>660199.9843885341</v>
       </c>
       <c r="C115">
@@ -11032,21 +11184,21 @@
         <v>3.5</v>
       </c>
       <c r="E115" s="28">
+        <f t="shared" si="7"/>
+        <v>1925.5832877998912</v>
+      </c>
+      <c r="F115" s="29">
         <f t="shared" si="8"/>
-        <v>1925.5832877998912</v>
-      </c>
-      <c r="F115" s="29">
+        <v>2310699.9453598694</v>
+      </c>
+      <c r="G115" s="29">
         <f t="shared" si="9"/>
-        <v>2310699.9453598694</v>
-      </c>
-      <c r="G115" s="29">
-        <f t="shared" si="10"/>
         <v>6739.5415072996193</v>
       </c>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>666125.56767633394</v>
       </c>
       <c r="C116">
@@ -11056,21 +11208,21 @@
         <v>3.5</v>
       </c>
       <c r="E116" s="28">
+        <f t="shared" si="7"/>
+        <v>1942.8662390559741</v>
+      </c>
+      <c r="F116" s="29">
         <f t="shared" si="8"/>
-        <v>1942.8662390559741</v>
-      </c>
-      <c r="F116" s="29">
+        <v>2331439.4868671689</v>
+      </c>
+      <c r="G116" s="29">
         <f t="shared" si="9"/>
-        <v>2331439.4868671689</v>
-      </c>
-      <c r="G116" s="29">
-        <f t="shared" si="10"/>
         <v>6800.0318366959091</v>
       </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>672068.43391538993</v>
       </c>
       <c r="C117">
@@ -11080,21 +11232,21 @@
         <v>3.5</v>
       </c>
       <c r="E117" s="28">
+        <f t="shared" si="7"/>
+        <v>1960.1995989198874</v>
+      </c>
+      <c r="F117" s="29">
         <f t="shared" si="8"/>
-        <v>1960.1995989198874</v>
-      </c>
-      <c r="F117" s="29">
+        <v>2352239.5187038649</v>
+      </c>
+      <c r="G117" s="29">
         <f t="shared" si="9"/>
-        <v>2352239.5187038649</v>
-      </c>
-      <c r="G117" s="29">
-        <f t="shared" si="10"/>
         <v>6860.6985962196059</v>
       </c>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>678028.63351430977</v>
       </c>
       <c r="C118">
@@ -11104,21 +11256,21 @@
         <v>3.5</v>
       </c>
       <c r="E118" s="28">
+        <f t="shared" si="7"/>
+        <v>1977.583514416737</v>
+      </c>
+      <c r="F118" s="29">
         <f t="shared" si="8"/>
-        <v>1977.583514416737</v>
-      </c>
-      <c r="F118" s="29">
+        <v>2373100.2173000844</v>
+      </c>
+      <c r="G118" s="29">
         <f t="shared" si="9"/>
-        <v>2373100.2173000844</v>
-      </c>
-      <c r="G118" s="29">
-        <f t="shared" si="10"/>
         <v>6921.5423004585791</v>
       </c>
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>684006.21702872647</v>
       </c>
       <c r="C119">
@@ -11128,21 +11280,21 @@
         <v>3.5</v>
       </c>
       <c r="E119" s="28">
+        <f t="shared" si="7"/>
+        <v>1995.0181330004523</v>
+      </c>
+      <c r="F119" s="29">
         <f t="shared" si="8"/>
-        <v>1995.0181330004523</v>
-      </c>
-      <c r="F119" s="29">
+        <v>2394021.7596005425</v>
+      </c>
+      <c r="G119" s="29">
         <f t="shared" si="9"/>
-        <v>2394021.7596005425</v>
-      </c>
-      <c r="G119" s="29">
-        <f t="shared" si="10"/>
         <v>6982.5634655015829</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>690001.23516172695</v>
       </c>
       <c r="C120">
@@ -11152,15 +11304,15 @@
         <v>3.5</v>
       </c>
       <c r="E120" s="28">
+        <f t="shared" si="7"/>
+        <v>2012.5036025550369</v>
+      </c>
+      <c r="F120" s="29">
         <f t="shared" si="8"/>
-        <v>2012.5036025550369</v>
-      </c>
-      <c r="F120" s="29">
+        <v>2415004.3230660441</v>
+      </c>
+      <c r="G120" s="29">
         <f t="shared" si="9"/>
-        <v>2415004.3230660441</v>
-      </c>
-      <c r="G120" s="29">
-        <f t="shared" si="10"/>
         <v>7043.7626089426294</v>
       </c>
     </row>
@@ -11181,22 +11333,22 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="28" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="31" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" style="31" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -11212,11 +11364,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:15">
@@ -11235,6 +11387,10 @@
       <c r="E2" s="28">
         <f t="shared" ref="E2:E31" si="0">B2*C2/100</f>
         <v>1500</v>
+      </c>
+      <c r="G2">
+        <f>1000*3*0.05</f>
+        <v>150</v>
       </c>
       <c r="I2" s="26"/>
       <c r="K2" s="32" t="s">
@@ -11402,7 +11558,7 @@
         <v>10000</v>
       </c>
       <c r="J7" s="36">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="K7" s="43">
         <f>I7*H7/100</f>
@@ -11410,19 +11566,19 @@
       </c>
       <c r="L7" s="37">
         <f>K7/J7*100</f>
-        <v>6250</v>
+        <v>1000</v>
       </c>
       <c r="M7" s="39">
         <f>L7/G7</f>
-        <v>3125</v>
+        <v>500</v>
       </c>
       <c r="N7" s="45">
         <f>L7*5/100</f>
-        <v>312.5</v>
+        <v>50</v>
       </c>
       <c r="O7" s="45">
         <f>L7*15/100</f>
-        <v>937.5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -11446,36 +11602,35 @@
       <c r="G8" s="40">
         <v>3</v>
       </c>
-      <c r="H8" s="49">
-        <f>H7</f>
-        <v>5</v>
+      <c r="H8" s="41">
+        <v>15</v>
       </c>
       <c r="I8" s="37">
         <f>I7</f>
         <v>10000</v>
       </c>
-      <c r="J8" s="36">
-        <v>8</v>
+      <c r="J8" s="57">
+        <v>50</v>
       </c>
       <c r="K8" s="43">
         <f t="shared" ref="K8:K25" si="2">I8*H8/100</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L8" s="37">
         <f t="shared" ref="L8:L25" si="3">K8/J8*100</f>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M8" s="39">
         <f t="shared" ref="M8:M25" si="4">L8/G8</f>
-        <v>2083.3333333333335</v>
+        <v>1000</v>
       </c>
       <c r="N8" s="45">
         <f t="shared" ref="N8:N25" si="5">L8*5/100</f>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O8" s="45">
         <f t="shared" ref="O8:O25" si="6">L8*15/100</f>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -11499,36 +11654,35 @@
       <c r="G9" s="40">
         <v>4</v>
       </c>
-      <c r="H9" s="49">
-        <f t="shared" ref="H9:H25" si="7">H8</f>
-        <v>5</v>
+      <c r="H9" s="41">
+        <v>15</v>
       </c>
       <c r="I9" s="37">
-        <f t="shared" ref="I9:I25" si="8">I8</f>
+        <f t="shared" ref="I9:I25" si="7">I8</f>
         <v>10000</v>
       </c>
-      <c r="J9" s="36">
-        <v>8</v>
+      <c r="J9" s="57">
+        <v>50</v>
       </c>
       <c r="K9" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M9" s="39">
         <f t="shared" si="4"/>
-        <v>1562.5</v>
+        <v>750</v>
       </c>
       <c r="N9" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O9" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -11552,36 +11706,35 @@
       <c r="G10" s="40">
         <v>5</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="41">
+        <v>15</v>
+      </c>
+      <c r="I10" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J10" s="36">
-        <v>8</v>
+      <c r="J10" s="57">
+        <v>50</v>
       </c>
       <c r="K10" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L10" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M10" s="39">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="N10" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O10" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -11608,36 +11761,35 @@
       <c r="G11" s="40">
         <v>6</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="41">
+        <v>15</v>
+      </c>
+      <c r="I11" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J11" s="36">
-        <v>8</v>
+      <c r="J11" s="57">
+        <v>50</v>
       </c>
       <c r="K11" s="43">
         <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="L11" s="37">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="M11" s="39">
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="3"/>
-        <v>6250</v>
-      </c>
-      <c r="M11" s="39">
-        <f t="shared" si="4"/>
-        <v>1041.6666666666667</v>
-      </c>
       <c r="N11" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O11" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -11661,36 +11813,35 @@
       <c r="G12" s="40">
         <v>7</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="41">
+        <v>15</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J12" s="36">
-        <v>8</v>
+      <c r="J12" s="57">
+        <v>50</v>
       </c>
       <c r="K12" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L12" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M12" s="39">
         <f t="shared" si="4"/>
-        <v>892.85714285714289</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="N12" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O12" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -11714,36 +11865,35 @@
       <c r="G13" s="40">
         <v>8</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="41">
+        <v>15</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I13" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J13" s="36">
-        <v>8</v>
+      <c r="J13" s="57">
+        <v>50</v>
       </c>
       <c r="K13" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M13" s="39">
         <f t="shared" si="4"/>
-        <v>781.25</v>
+        <v>375</v>
       </c>
       <c r="N13" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O13" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -11767,36 +11917,35 @@
       <c r="G14" s="40">
         <v>9</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="41">
+        <v>15</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I14" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J14" s="36">
-        <v>8</v>
+      <c r="J14" s="57">
+        <v>50</v>
       </c>
       <c r="K14" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M14" s="39">
         <f t="shared" si="4"/>
-        <v>694.44444444444446</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="N14" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O14" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -11820,36 +11969,35 @@
       <c r="G15" s="40">
         <v>10</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="41">
+        <v>15</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J15" s="36">
-        <v>8</v>
+      <c r="J15" s="57">
+        <v>50</v>
       </c>
       <c r="K15" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L15" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M15" s="39">
         <f t="shared" si="4"/>
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="N15" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O15" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -11873,36 +12021,35 @@
       <c r="G16" s="40">
         <v>11</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="41">
+        <v>15</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J16" s="36">
-        <v>8</v>
+      <c r="J16" s="57">
+        <v>50</v>
       </c>
       <c r="K16" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L16" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M16" s="39">
         <f t="shared" si="4"/>
-        <v>568.18181818181813</v>
+        <v>272.72727272727275</v>
       </c>
       <c r="N16" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O16" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -11926,36 +12073,35 @@
       <c r="G17" s="40">
         <v>12</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="41">
+        <v>15</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J17" s="36">
-        <v>8</v>
+      <c r="J17" s="57">
+        <v>50</v>
       </c>
       <c r="K17" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M17" s="39">
         <f t="shared" si="4"/>
-        <v>520.83333333333337</v>
+        <v>250</v>
       </c>
       <c r="N17" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O17" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -11979,36 +12125,35 @@
       <c r="G18" s="40">
         <v>13</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="41">
+        <v>15</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I18" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J18" s="36">
-        <v>8</v>
+      <c r="J18" s="57">
+        <v>50</v>
       </c>
       <c r="K18" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L18" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M18" s="39">
         <f t="shared" si="4"/>
-        <v>480.76923076923077</v>
+        <v>230.76923076923077</v>
       </c>
       <c r="N18" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O18" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -12032,36 +12177,35 @@
       <c r="G19" s="40">
         <v>14</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="41">
+        <v>15</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I19" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J19" s="36">
-        <v>8</v>
+      <c r="J19" s="57">
+        <v>50</v>
       </c>
       <c r="K19" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L19" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M19" s="39">
         <f t="shared" si="4"/>
-        <v>446.42857142857144</v>
+        <v>214.28571428571428</v>
       </c>
       <c r="N19" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O19" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -12085,36 +12229,35 @@
       <c r="G20" s="40">
         <v>15</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="41">
+        <v>15</v>
+      </c>
+      <c r="I20" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J20" s="36">
-        <v>8</v>
+      <c r="J20" s="57">
+        <v>50</v>
       </c>
       <c r="K20" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L20" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M20" s="39">
         <f t="shared" si="4"/>
-        <v>416.66666666666669</v>
+        <v>200</v>
       </c>
       <c r="N20" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O20" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -12138,36 +12281,35 @@
       <c r="G21" s="40">
         <v>16</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="41">
+        <v>15</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J21" s="36">
-        <v>8</v>
+      <c r="J21" s="57">
+        <v>50</v>
       </c>
       <c r="K21" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L21" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M21" s="39">
         <f t="shared" si="4"/>
-        <v>390.625</v>
+        <v>187.5</v>
       </c>
       <c r="N21" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O21" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -12191,36 +12333,35 @@
       <c r="G22" s="40">
         <v>17</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="41">
+        <v>15</v>
+      </c>
+      <c r="I22" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J22" s="36">
-        <v>8</v>
+      <c r="J22" s="57">
+        <v>50</v>
       </c>
       <c r="K22" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L22" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M22" s="39">
         <f t="shared" si="4"/>
-        <v>367.64705882352939</v>
+        <v>176.47058823529412</v>
       </c>
       <c r="N22" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O22" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -12244,36 +12385,35 @@
       <c r="G23" s="40">
         <v>18</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="41">
+        <v>15</v>
+      </c>
+      <c r="I23" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J23" s="36">
-        <v>8</v>
+      <c r="J23" s="57">
+        <v>50</v>
       </c>
       <c r="K23" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L23" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M23" s="39">
         <f t="shared" si="4"/>
-        <v>347.22222222222223</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="N23" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O23" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -12297,36 +12437,35 @@
       <c r="G24" s="40">
         <v>19</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="41">
+        <v>15</v>
+      </c>
+      <c r="I24" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J24" s="36">
-        <v>8</v>
+      <c r="J24" s="57">
+        <v>50</v>
       </c>
       <c r="K24" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L24" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M24" s="39">
         <f t="shared" si="4"/>
-        <v>328.94736842105266</v>
+        <v>157.89473684210526</v>
       </c>
       <c r="N24" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O24" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -12350,36 +12489,35 @@
       <c r="G25" s="40">
         <v>20</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="41">
+        <v>15</v>
+      </c>
+      <c r="I25" s="37">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="37">
-        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="J25" s="36">
-        <v>8</v>
+      <c r="J25" s="57">
+        <v>50</v>
       </c>
       <c r="K25" s="43">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L25" s="37">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>3000</v>
       </c>
       <c r="M25" s="39">
         <f t="shared" si="4"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="N25" s="45">
         <f t="shared" si="5"/>
-        <v>312.5</v>
+        <v>150</v>
       </c>
       <c r="O25" s="45">
         <f t="shared" si="6"/>
-        <v>937.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -12507,25 +12645,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="24"/>
@@ -12535,12 +12675,18 @@
       <c r="F1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="52" t="s">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="24"/>
@@ -12550,9 +12696,16 @@
       <c r="F2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
+      <c r="H2" s="58">
+        <v>1.73</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2*0.05*10000</f>
+        <v>865.00000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12566,24 +12719,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -12597,8 +12750,8 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="54"/>
       <c r="C7" s="24"/>
       <c r="E7">
         <v>1440</v>
@@ -12608,11 +12761,11 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="24"/>
@@ -12624,35 +12777,35 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="58"/>
-    </row>
-    <row r="11" spans="1:6" ht="57.6">
-      <c r="A11" s="55" t="s">
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="58">
+      <c r="A11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -12660,8 +12813,8 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="1"/>
@@ -12670,4 +12823,433 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.90625" style="60"/>
+    <col min="8" max="9" width="8.90625" style="28"/>
+    <col min="10" max="10" width="8.90625" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="66">
+        <v>45418</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>29179</v>
+      </c>
+      <c r="G2" s="7">
+        <v>21284</v>
+      </c>
+      <c r="H2" s="65">
+        <f>F2/E2</f>
+        <v>2.9178999999999999</v>
+      </c>
+      <c r="I2" s="65">
+        <f>G2/E2</f>
+        <v>2.1284000000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="8">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.68</v>
+      </c>
+      <c r="D3" s="66">
+        <v>45433</v>
+      </c>
+      <c r="E3" s="7">
+        <v>80000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>299389</v>
+      </c>
+      <c r="G3" s="7">
+        <v>256986</v>
+      </c>
+      <c r="H3" s="65">
+        <f t="shared" ref="H3:H12" si="0">F3/E3</f>
+        <v>3.7423625</v>
+      </c>
+      <c r="I3" s="65">
+        <f t="shared" ref="I3:I12" si="1">G3/E3</f>
+        <v>3.2123249999999999</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8">
+        <v>152.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="D4" s="66">
+        <v>45418</v>
+      </c>
+      <c r="E4" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>318372</v>
+      </c>
+      <c r="G4" s="7">
+        <v>241589</v>
+      </c>
+      <c r="H4" s="65">
+        <f t="shared" si="0"/>
+        <v>7.9592999999999998</v>
+      </c>
+      <c r="I4" s="65">
+        <f t="shared" si="1"/>
+        <v>6.0397249999999998</v>
+      </c>
+      <c r="J4" s="7">
+        <v>76782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1550</v>
+      </c>
+      <c r="C5" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="D5" s="66">
+        <v>45428</v>
+      </c>
+      <c r="E5" s="7">
+        <v>190000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1308643</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1188467</v>
+      </c>
+      <c r="H5" s="65">
+        <f t="shared" si="0"/>
+        <v>6.8875947368421055</v>
+      </c>
+      <c r="I5" s="65">
+        <f t="shared" si="1"/>
+        <v>6.2550894736842109</v>
+      </c>
+      <c r="J5" s="7">
+        <v>120176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="66">
+        <v>45436</v>
+      </c>
+      <c r="E6" s="7">
+        <v>60000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>448076</v>
+      </c>
+      <c r="G6" s="7">
+        <v>437167</v>
+      </c>
+      <c r="H6" s="65">
+        <f t="shared" si="0"/>
+        <v>7.4679333333333338</v>
+      </c>
+      <c r="I6" s="65">
+        <f t="shared" si="1"/>
+        <v>7.2861166666666666</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="D7" s="66">
+        <v>45419</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>280160</v>
+      </c>
+      <c r="G7" s="7">
+        <v>293471</v>
+      </c>
+      <c r="H7" s="65">
+        <f t="shared" si="0"/>
+        <v>2.8016000000000001</v>
+      </c>
+      <c r="I7" s="65">
+        <f t="shared" si="1"/>
+        <v>2.9347099999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>-13311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="8">
+        <v>122.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="D8" s="66">
+        <v>45434</v>
+      </c>
+      <c r="E8" s="7">
+        <v>52000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>206761</v>
+      </c>
+      <c r="G8" s="7">
+        <v>191915</v>
+      </c>
+      <c r="H8" s="65">
+        <f t="shared" si="0"/>
+        <v>3.976173076923077</v>
+      </c>
+      <c r="I8" s="65">
+        <f t="shared" si="1"/>
+        <v>3.6906730769230771</v>
+      </c>
+      <c r="J8" s="7">
+        <v>14846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.72</v>
+      </c>
+      <c r="D9" s="66">
+        <v>45434</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>34370</v>
+      </c>
+      <c r="G9" s="7">
+        <v>31451</v>
+      </c>
+      <c r="H9" s="65">
+        <f t="shared" si="0"/>
+        <v>1.7184999999999999</v>
+      </c>
+      <c r="I9" s="65">
+        <f t="shared" si="1"/>
+        <v>1.5725499999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8">
+        <v>19.14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="66">
+        <v>45428</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7285</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5157</v>
+      </c>
+      <c r="H10" s="65">
+        <f t="shared" si="0"/>
+        <v>7.2850000000000001</v>
+      </c>
+      <c r="I10" s="65">
+        <f t="shared" si="1"/>
+        <v>5.157</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8">
+        <v>186.3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>441.2</v>
+      </c>
+      <c r="D11" s="66">
+        <v>45433</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1145052</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1680853</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1560716</v>
+      </c>
+      <c r="H11" s="65">
+        <f t="shared" si="0"/>
+        <v>1.4679272207725065</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" si="1"/>
+        <v>1.3630088415198611</v>
+      </c>
+      <c r="J11" s="7">
+        <v>120136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8640</v>
+      </c>
+      <c r="C12" s="5">
+        <v>268.3</v>
+      </c>
+      <c r="D12" s="66">
+        <v>45428</v>
+      </c>
+      <c r="E12" s="7">
+        <v>77000</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3374115</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3069814</v>
+      </c>
+      <c r="H12" s="65">
+        <f t="shared" si="0"/>
+        <v>43.819675324675323</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" si="1"/>
+        <v>39.867714285714285</v>
+      </c>
+      <c r="J12" s="7">
+        <v>304301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/stock/trading_time.xlsx
+++ b/stock/trading_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="1992" windowHeight="5352"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="1990" windowHeight="5350"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Risk" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Balance</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Money Spend</t>
   </si>
   <si>
-    <t>Stop Loss(%)</t>
-  </si>
-  <si>
     <t>Money Risk</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Forex Calculator</t>
   </si>
   <si>
-    <t>Pips(%)</t>
-  </si>
-  <si>
     <t>EURUSD</t>
   </si>
   <si>
@@ -116,21 +110,9 @@
     <t>GBPJPY</t>
   </si>
   <si>
-    <t>9:20PM</t>
-  </si>
-  <si>
-    <t>Target SL(%)</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
-    <t>3:00PM</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -195,6 +177,33 @@
   </si>
   <si>
     <t>GME</t>
+  </si>
+  <si>
+    <t>Total Earn</t>
+  </si>
+  <si>
+    <t>Target Price</t>
+  </si>
+  <si>
+    <t>Risk Reward(RR)</t>
+  </si>
+  <si>
+    <t>Risk (%)</t>
+  </si>
+  <si>
+    <t>Stop Loss (%)</t>
+  </si>
+  <si>
+    <t>SL Price</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>Change(%)</t>
+  </si>
+  <si>
+    <t>XAUUSD</t>
   </si>
 </sst>
 </file>
@@ -215,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -310,7 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,9 +367,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -374,6 +385,23 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,71 +699,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="11" max="11" width="4.54296875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.36328125" customWidth="1"/>
+    <col min="16" max="16" width="8.36328125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="P1" s="31"/>
+      <c r="A1" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13">
-        <v>50000</v>
-      </c>
-      <c r="K2" s="29" t="s">
+        <v>6000</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="29">
         <v>2</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="29">
         <v>3</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="29">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>35</v>
+      <c r="E3" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
@@ -755,28 +784,28 @@
         <f>N3</f>
         <v>10000</v>
       </c>
-      <c r="P3" s="31"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B4" s="13">
-        <v>5</v>
-      </c>
-      <c r="D4" s="35">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="7">
         <f>B6*D4</f>
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
       <c r="L4" s="6">
-        <f>L3*1.3</f>
-        <v>13000</v>
+        <f>L3*1.1</f>
+        <v>11000</v>
       </c>
       <c r="M4" s="12">
         <f>M3*0.98</f>
@@ -787,16 +816,16 @@
         <v>9700</v>
       </c>
       <c r="O4" s="12">
-        <f>O3*0.95</f>
-        <v>9500</v>
-      </c>
-      <c r="P4" s="31">
+        <f>O3*0.96</f>
+        <v>9600</v>
+      </c>
+      <c r="P4" s="30">
         <f t="shared" ref="P4:P6" si="0">(N4-M4)/M4*100</f>
         <v>-1.0204081632653061</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="30">
         <f>(O4-M4)/M4*100</f>
-        <v>-3.0612244897959182</v>
+        <v>-2.0408163265306123</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,64 +833,64 @@
         <v>15</v>
       </c>
       <c r="B5" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="D5" s="35">
+        <v>300</v>
+      </c>
+      <c r="D5" s="34">
         <v>1.5</v>
       </c>
       <c r="E5" s="7">
         <f>D5*B6</f>
-        <v>3000</v>
+        <v>360</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L34" si="1">L4*1.3</f>
-        <v>16900</v>
+        <f t="shared" ref="L5:L36" si="1">L4*1.1</f>
+        <v>12100.000000000002</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M34" si="2">M4*0.98</f>
+        <f t="shared" ref="M5:M36" si="2">M4*0.98</f>
         <v>9604</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" ref="N5:N34" si="3">N4*0.97</f>
+        <f t="shared" ref="N5:N36" si="3">N4*0.97</f>
         <v>9409</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O34" si="4">O4*0.95</f>
-        <v>9025</v>
-      </c>
-      <c r="P5" s="31">
+        <f t="shared" ref="O5:O21" si="4">O4*0.96</f>
+        <v>9216</v>
+      </c>
+      <c r="P5" s="30">
         <f t="shared" si="0"/>
         <v>-2.0304039983340272</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <f t="shared" ref="Q5:Q19" si="5">(O5-M5)/M5*100</f>
-        <v>-6.028738025822574</v>
+        <v>-4.039983340274885</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="17">
         <f>B2*B3/100</f>
-        <v>2000</v>
-      </c>
-      <c r="D6" s="35">
+        <v>240</v>
+      </c>
+      <c r="D6" s="34">
         <v>2</v>
       </c>
       <c r="E6" s="7">
         <f>D6*B6</f>
-        <v>4000</v>
+        <v>480</v>
       </c>
       <c r="K6" s="6">
         <v>4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>21970</v>
+        <v>13310.000000000004</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="2"/>
@@ -873,15 +902,15 @@
       </c>
       <c r="O6" s="12">
         <f t="shared" si="4"/>
-        <v>8573.75</v>
-      </c>
-      <c r="P6" s="31">
+        <v>8847.36</v>
+      </c>
+      <c r="P6" s="30">
         <f t="shared" si="0"/>
         <v>-3.0300937534530736</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="30">
         <f t="shared" si="5"/>
-        <v>-8.9054093107463732</v>
+        <v>-5.998351027208046</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -890,14 +919,14 @@
       </c>
       <c r="B7" s="14">
         <f>B5*B8</f>
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="K7" s="6">
         <v>5</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>28561</v>
+        <v>14641.000000000005</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" si="2"/>
@@ -909,15 +938,15 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="4"/>
-        <v>8145.0625</v>
-      </c>
-      <c r="P7" s="31">
+        <v>8493.4655999999995</v>
+      </c>
+      <c r="P7" s="30">
         <f>(N7-M7)/M7*100</f>
         <v>-4.0195825927035553</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <f t="shared" si="5"/>
-        <v>-11.694019229805157</v>
+        <v>-7.9167520266527891</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -926,14 +955,14 @@
       </c>
       <c r="B8" s="14">
         <f>B2/(B4/B3)/B5</f>
-        <v>30075.187969924809</v>
+        <v>40</v>
       </c>
       <c r="K8" s="6">
         <v>6</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>37129.300000000003</v>
+        <v>16105.100000000008</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" si="2"/>
@@ -945,15 +974,15 @@
       </c>
       <c r="O8" s="12">
         <f t="shared" si="4"/>
-        <v>7737.8093749999998</v>
-      </c>
-      <c r="P8" s="31">
+        <v>8153.726975999999</v>
+      </c>
+      <c r="P8" s="30">
         <f t="shared" ref="P8:P19" si="6">(N8-M8)/M8*100</f>
         <v>-4.9989746070637233</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <f t="shared" si="5"/>
-        <v>-14.397263539096844</v>
+        <v>-9.7960019852925413</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,7 +991,7 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>48268.090000000004</v>
+        <v>17715.610000000011</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" si="2"/>
@@ -974,34 +1003,34 @@
       </c>
       <c r="O9" s="12">
         <f t="shared" si="4"/>
-        <v>7350.9189062499991</v>
-      </c>
-      <c r="P9" s="31">
+        <v>7827.5778969599987</v>
+      </c>
+      <c r="P9" s="30">
         <f t="shared" si="6"/>
         <v>-5.9683728253589923</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="30">
         <f t="shared" si="5"/>
-        <v>-17.017755471573476</v>
+        <v>-11.636899903960037</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>31</v>
+      <c r="E10" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="6">
         <v>8</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>62748.517000000007</v>
+        <v>19487.171000000013</v>
       </c>
       <c r="M10" s="12">
         <f t="shared" si="2"/>
@@ -1013,15 +1042,15 @@
       </c>
       <c r="O10" s="12">
         <f t="shared" si="4"/>
-        <v>6983.3729609374986</v>
-      </c>
-      <c r="P10" s="31">
+        <v>7514.4747810815988</v>
+      </c>
+      <c r="P10" s="30">
         <f t="shared" si="6"/>
         <v>-6.9278792251002361</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="30">
         <f t="shared" si="5"/>
-        <v>-19.558028263260013</v>
+        <v>-13.440228477348615</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,26 +1058,20 @@
         <v>0</v>
       </c>
       <c r="B11" s="13">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="28">
+        <v>24</v>
+      </c>
+      <c r="E11" s="27">
         <v>1.0717000000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
       </c>
       <c r="K11" s="6">
         <v>9</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>81573.072100000005</v>
+        <v>21435.888100000015</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="2"/>
@@ -1060,42 +1083,36 @@
       </c>
       <c r="O11" s="12">
         <f t="shared" si="4"/>
-        <v>6634.2043128906234</v>
-      </c>
-      <c r="P11" s="31">
+        <v>7213.8957898383351</v>
+      </c>
+      <c r="P11" s="30">
         <f t="shared" si="6"/>
         <v>-7.8775947432114561</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <f t="shared" si="5"/>
-        <v>-22.020537602139811</v>
+        <v>-15.206754426790479</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B12" s="13">
         <v>4</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="28">
-        <v>1.2971900000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1.2751999999999999</v>
       </c>
       <c r="K12" s="6">
         <v>10</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>106044.99373000002</v>
+        <v>23579.476910000019</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="2"/>
@@ -1107,42 +1124,36 @@
       </c>
       <c r="O12" s="12">
         <f t="shared" si="4"/>
-        <v>6302.4940972460918</v>
-      </c>
-      <c r="P12" s="31">
+        <v>6925.339958244801</v>
+      </c>
+      <c r="P12" s="30">
         <f t="shared" si="6"/>
         <v>-8.8176192866480783</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="30">
         <f t="shared" si="5"/>
-        <v>-24.407664002074313</v>
+        <v>-16.937228826243739</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B13" s="13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="28">
+        <v>26</v>
+      </c>
+      <c r="E13" s="27">
         <v>0.65790000000000004</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
       </c>
       <c r="K13" s="6">
         <v>11</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>137858.49184900001</v>
+        <v>25937.424601000024</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="2"/>
@@ -1154,38 +1165,38 @@
       </c>
       <c r="O13" s="12">
         <f t="shared" si="4"/>
-        <v>5987.3693923837873</v>
-      </c>
-      <c r="P13" s="31">
+        <v>6648.3263599150087</v>
+      </c>
+      <c r="P13" s="30">
         <f t="shared" si="6"/>
         <v>-9.7480517429067692</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="30">
         <f t="shared" si="5"/>
-        <v>-26.721715104051626</v>
+        <v>-18.632387421626522</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
+        <f>E17</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="20">
         <f>E12</f>
-        <v>1.2971900000000001</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="21">
-        <f>E12</f>
-        <v>1.2971900000000001</v>
+        <v>1.2751999999999999</v>
       </c>
       <c r="K14" s="6">
         <v>12</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>179216.03940370004</v>
+        <v>28531.16706110003</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="2"/>
@@ -1197,29 +1208,29 @@
       </c>
       <c r="O14" s="12">
         <f t="shared" si="4"/>
-        <v>5688.0009227645978</v>
-      </c>
-      <c r="P14" s="31">
+        <v>6382.3933055184079</v>
+      </c>
+      <c r="P14" s="30">
         <f t="shared" si="6"/>
         <v>-10.668989990428129</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <f t="shared" si="5"/>
-        <v>-28.964927906988812</v>
+        <v>-20.292950943634143</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="18">
         <f>B11*B12/100</f>
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="21">
+        <v>28</v>
+      </c>
+      <c r="E15" s="20">
         <f>E11</f>
         <v>1.0717000000000001</v>
       </c>
@@ -1228,7 +1239,7 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>232980.85122481006</v>
+        <v>31384.283767210036</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="2"/>
@@ -1240,15 +1251,15 @@
       </c>
       <c r="O15" s="12">
         <f t="shared" si="4"/>
-        <v>5403.6008766263676</v>
-      </c>
-      <c r="P15" s="31">
+        <v>6127.0975732976713</v>
+      </c>
+      <c r="P15" s="30">
         <f t="shared" si="6"/>
         <v>-11.580530908893151</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <f t="shared" si="5"/>
-        <v>-31.139470930244261</v>
+        <v>-21.919625414172224</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1260,9 +1271,9 @@
         <v>800000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="21">
+        <v>27</v>
+      </c>
+      <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="K16" s="6">
@@ -1270,7 +1281,7 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>302875.10659225308</v>
+        <v>34522.712143931043</v>
       </c>
       <c r="M16" s="12">
         <f t="shared" si="2"/>
@@ -1282,31 +1293,39 @@
       </c>
       <c r="O16" s="12">
         <f t="shared" si="4"/>
-        <v>5133.4208327950491</v>
-      </c>
-      <c r="P16" s="31">
+        <v>5882.0136703657645</v>
+      </c>
+      <c r="P16" s="30">
         <f t="shared" si="6"/>
         <v>-12.482770389414648</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <f t="shared" si="5"/>
-        <v>-33.247446309930659</v>
+        <v>-23.513102446536053</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="48">
         <f>B11/(B13/B12)/100000/B14</f>
-        <v>6.1671767435764995</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="K17" s="6">
         <v>15</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>393737.638569929</v>
+        <v>37974.983358324149</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="2"/>
@@ -1318,15 +1337,15 @@
       </c>
       <c r="O17" s="12">
         <f t="shared" si="4"/>
-        <v>4876.7497911552964</v>
-      </c>
-      <c r="P17" s="31">
+        <v>5646.7331235511338</v>
+      </c>
+      <c r="P17" s="30">
         <f t="shared" si="6"/>
         <v>-13.375803344624707</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <f t="shared" si="5"/>
-        <v>-35.290891831055241</v>
+        <v>-25.074059539463889</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1335,7 +1354,7 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>511858.9301409077</v>
+        <v>41772.481694156566</v>
       </c>
       <c r="M18" s="12">
         <f t="shared" si="2"/>
@@ -1347,30 +1366,30 @@
       </c>
       <c r="O18" s="12">
         <f t="shared" si="4"/>
-        <v>4632.912301597531</v>
-      </c>
-      <c r="P18" s="31">
+        <v>5420.863798609088</v>
+      </c>
+      <c r="P18" s="30">
         <f t="shared" si="6"/>
         <v>-14.259723718659147</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="30">
         <f t="shared" si="5"/>
-        <v>-37.271782897451509</v>
+        <v>-26.603160365189122</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="K19" s="6">
         <v>17</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>665416.60918318003</v>
+        <v>45949.729863572225</v>
       </c>
       <c r="M19" s="12">
         <f t="shared" si="2"/>
@@ -1382,30 +1401,32 @@
       </c>
       <c r="O19" s="12">
         <f t="shared" si="4"/>
-        <v>4401.2666865176543</v>
-      </c>
-      <c r="P19" s="31">
+        <v>5204.0292466647243</v>
+      </c>
+      <c r="P19" s="30">
         <f t="shared" si="6"/>
         <v>-15.134624497040175</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <f t="shared" si="5"/>
-        <v>-39.192034441407074</v>
+        <v>-28.101055051613834</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="36">
-        <v>1.29705</v>
-      </c>
-      <c r="B20" s="36">
-        <v>1.29705</v>
-      </c>
+      <c r="A20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="46">
+        <v>1.26675</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="K20" s="6">
         <v>18</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>865041.59193813405</v>
+        <v>50544.702849929454</v>
       </c>
       <c r="M20" s="12">
         <f t="shared" si="2"/>
@@ -1417,23 +1438,25 @@
       </c>
       <c r="O20" s="12">
         <f t="shared" si="4"/>
-        <v>4181.203352191771</v>
-      </c>
-      <c r="P20" s="31"/>
+        <v>4995.868076798135</v>
+      </c>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="36">
-        <v>1.2965899999999999</v>
-      </c>
-      <c r="B21" s="36">
-        <v>1.3219799999999999</v>
-      </c>
+      <c r="A21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="46">
+        <v>1.2655400000000001</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="K21" s="6">
         <v>19</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>1124554.0695195743</v>
+        <v>55599.173134922406</v>
       </c>
       <c r="M21" s="12">
         <f t="shared" si="2"/>
@@ -1445,336 +1468,382 @@
       </c>
       <c r="O21" s="12">
         <f t="shared" si="4"/>
-        <v>3972.1431845821821</v>
-      </c>
-      <c r="P21" s="31"/>
+        <v>4796.0333537262095</v>
+      </c>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="37">
-        <f>(A21-A20)/A21*100</f>
-        <v>-3.5477676057977234E-2</v>
-      </c>
-      <c r="B22" s="37">
-        <f>(B21-B20)/B21*100</f>
-        <v>1.8858076521581186</v>
+      <c r="A22" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="46">
+        <v>1.25685</v>
       </c>
       <c r="K22" s="6">
         <v>20</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>1461920.2903754467</v>
-      </c>
-      <c r="M22" s="12">
-        <f t="shared" si="2"/>
-        <v>6812.3262423989217</v>
-      </c>
-      <c r="N22" s="12">
-        <f t="shared" si="3"/>
-        <v>5606.1272466674945</v>
-      </c>
-      <c r="O22" s="12">
-        <f t="shared" si="4"/>
-        <v>3773.536025353073</v>
-      </c>
-      <c r="P22" s="31"/>
+        <v>61159.090448414652</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23">
-        <f>B22/B13</f>
-        <v>18.858076521581186</v>
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="43">
+        <f>ABS((B21-B20)/B21*100)</f>
+        <v>9.5611359577724389E-2</v>
       </c>
       <c r="K23" s="6">
         <v>21</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>1900496.3774880806</v>
+        <v>67274.999493256124</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="2"/>
-        <v>6676.0797175509433</v>
+        <f>M21*0.98</f>
+        <v>6812.3262423989217</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="3"/>
-        <v>5437.9434292674696</v>
+        <f>N21*0.97</f>
+        <v>5606.1272466674945</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="4"/>
-        <v>3584.8592240854191</v>
-      </c>
-      <c r="P23" s="31"/>
+        <f>O21*0.95</f>
+        <v>4556.2316860398987</v>
+      </c>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24">
-        <f>B23*B15</f>
-        <v>15086.461217264949</v>
+      <c r="A24" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="47">
+        <f>B11/(B23/B12)/100000/B14</f>
+        <v>0.4183603305785355</v>
       </c>
       <c r="K24" s="6">
         <v>22</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>2470645.2907345048</v>
+        <v>74002.499442581742</v>
       </c>
       <c r="M24" s="12">
         <f t="shared" si="2"/>
-        <v>6542.558123199924</v>
+        <v>6676.0797175509433</v>
       </c>
       <c r="N24" s="12">
         <f t="shared" si="3"/>
-        <v>5274.8051263894449</v>
+        <v>5437.9434292674696</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="4"/>
-        <v>3405.616262881148</v>
-      </c>
-      <c r="P24" s="31"/>
+        <f t="shared" ref="O24:O36" si="7">O23*0.95</f>
+        <v>4328.4201017379037</v>
+      </c>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="44">
+        <f>ABS(((B22-B21)/B21*100)/B23)</f>
+        <v>7.1818181818186497</v>
+      </c>
       <c r="K25" s="6">
         <v>23</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>3211838.8779548565</v>
+        <v>81402.749386839918</v>
       </c>
       <c r="M25" s="12">
         <f t="shared" si="2"/>
+        <v>6542.558123199924</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="3"/>
+        <v>5274.8051263894449</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="7"/>
+        <v>4111.9990966510086</v>
+      </c>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="49">
+        <f>ABS((B21-B22)/B21*100)</f>
+        <v>0.68666340060370168</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="30"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="45">
+        <f>B25*B15</f>
+        <v>2872.7272727274599</v>
+      </c>
+      <c r="K27" s="6">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <f>L25*1.1</f>
+        <v>89543.024325523918</v>
+      </c>
+      <c r="M27" s="12">
+        <f>M25*0.98</f>
         <v>6411.7069607359253</v>
       </c>
-      <c r="N25" s="12">
-        <f t="shared" si="3"/>
+      <c r="N27" s="12">
+        <f>N25*0.97</f>
         <v>5116.5609725977611</v>
       </c>
-      <c r="O25" s="12">
-        <f t="shared" si="4"/>
-        <v>3235.3354497370906</v>
-      </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="K26" s="6">
-        <v>24</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="1"/>
-        <v>4175390.5413413136</v>
-      </c>
-      <c r="M26" s="12">
-        <f t="shared" si="2"/>
-        <v>6283.4728215212072</v>
-      </c>
-      <c r="N26" s="12">
-        <f t="shared" si="3"/>
-        <v>4963.0641434198278</v>
-      </c>
-      <c r="O26" s="12">
-        <f t="shared" si="4"/>
-        <v>3073.5686772502359</v>
-      </c>
-      <c r="P26" s="31"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="K27" s="6">
-        <v>25</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
-        <v>5428007.7037437083</v>
-      </c>
-      <c r="M27" s="12">
-        <f t="shared" si="2"/>
-        <v>6157.8033650907828</v>
-      </c>
-      <c r="N27" s="12">
-        <f t="shared" si="3"/>
-        <v>4814.172219117233</v>
-      </c>
       <c r="O27" s="12">
-        <f t="shared" si="4"/>
-        <v>2919.8902433877238</v>
-      </c>
-      <c r="P27" s="31"/>
+        <f>O25*0.95</f>
+        <v>3906.3991418184578</v>
+      </c>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:17">
       <c r="K28" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>7056410.0148668215</v>
+        <v>98497.32675807632</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="2"/>
-        <v>6034.6472977889671</v>
+        <v>6283.4728215212072</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" si="3"/>
-        <v>4669.7470525437157</v>
+        <v>4963.0641434198278</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="4"/>
-        <v>2773.8957312183375</v>
-      </c>
-      <c r="P28" s="31"/>
+        <f t="shared" si="7"/>
+        <v>3711.0791847275345</v>
+      </c>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:17">
       <c r="K29" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>9173333.0193268675</v>
+        <v>108347.05943388396</v>
       </c>
       <c r="M29" s="12">
         <f t="shared" si="2"/>
-        <v>5913.9543518331875</v>
+        <v>6157.8033650907828</v>
       </c>
       <c r="N29" s="12">
         <f t="shared" si="3"/>
-        <v>4529.6546409674038</v>
+        <v>4814.172219117233</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="4"/>
-        <v>2635.2009446574207</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>3525.5252254911575</v>
+      </c>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:17">
       <c r="K30" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>11925332.925124928</v>
+        <v>119181.76537727236</v>
       </c>
       <c r="M30" s="12">
         <f t="shared" si="2"/>
-        <v>5795.6752647965241</v>
+        <v>6034.6472977889671</v>
       </c>
       <c r="N30" s="12">
         <f t="shared" si="3"/>
-        <v>4393.7650017383812</v>
+        <v>4669.7470525437157</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="4"/>
-        <v>2503.4408974245493</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>3349.2489642165992</v>
+      </c>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="1:17">
       <c r="K31" s="6">
+        <v>28</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
+        <v>131099.9419149996</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="2"/>
+        <v>5913.9543518331875</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="3"/>
+        <v>4529.6546409674038</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="7"/>
+        <v>3181.786516005769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="K32" s="6">
         <v>29</v>
       </c>
-      <c r="L31" s="6">
-        <f t="shared" si="1"/>
-        <v>15502932.802662408</v>
-      </c>
-      <c r="M31" s="12">
+      <c r="L32" s="6">
+        <f t="shared" si="1"/>
+        <v>144209.93610649958</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="2"/>
+        <v>5795.6752647965241</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="3"/>
+        <v>4393.7650017383812</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="7"/>
+        <v>3022.6971902054806</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15">
+      <c r="K33" s="6">
+        <v>30</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="1"/>
+        <v>158630.92971714956</v>
+      </c>
+      <c r="M33" s="12">
         <f t="shared" si="2"/>
         <v>5679.7617595005931</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N33" s="12">
         <f t="shared" si="3"/>
         <v>4261.9520516862294</v>
       </c>
-      <c r="O31" s="12">
-        <f t="shared" si="4"/>
-        <v>2378.2688525533217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="I32" s="1"/>
-      <c r="K32" s="6">
-        <v>30</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="1"/>
-        <v>20153812.643461131</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" si="2"/>
-        <v>5566.1665243105808</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" si="3"/>
-        <v>4134.0934901356422</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="4"/>
-        <v>2259.3554099256557</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15">
-      <c r="I33" s="1"/>
-      <c r="K33" s="6">
-        <v>31</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="1"/>
-        <v>26199956.436499469</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="2"/>
-        <v>5454.8431938243693</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" si="3"/>
-        <v>4010.0706854315727</v>
-      </c>
       <c r="O33" s="12">
-        <f t="shared" si="4"/>
-        <v>2146.3876394293729</v>
+        <f t="shared" si="7"/>
+        <v>2871.5623306952066</v>
       </c>
     </row>
     <row r="34" spans="4:15">
       <c r="I34" s="1"/>
       <c r="K34" s="6">
+        <v>31</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="1"/>
+        <v>174494.02268886453</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="2"/>
+        <v>5566.1665243105808</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="3"/>
+        <v>4134.0934901356422</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="7"/>
+        <v>2727.9842141604463</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15">
+      <c r="I35" s="1"/>
+      <c r="K35" s="6">
         <v>32</v>
       </c>
-      <c r="L34" s="6">
-        <f t="shared" si="1"/>
-        <v>34059943.367449313</v>
-      </c>
-      <c r="M34" s="12">
+      <c r="L35" s="6">
+        <f t="shared" si="1"/>
+        <v>191943.42495775101</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="2"/>
+        <v>5454.8431938243693</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="3"/>
+        <v>4010.0706854315727</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="7"/>
+        <v>2591.5850034524237</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15">
+      <c r="I36" s="1"/>
+      <c r="K36" s="6">
+        <v>33</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="1"/>
+        <v>211137.76745352612</v>
+      </c>
+      <c r="M36" s="12">
         <f t="shared" si="2"/>
         <v>5345.7463299478823</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N36" s="12">
         <f t="shared" si="3"/>
         <v>3889.7685648686252</v>
       </c>
-      <c r="O34" s="12">
-        <f t="shared" si="4"/>
-        <v>2039.0682574579041</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15">
-      <c r="D35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7">
-        <v>10000</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="4:15">
-      <c r="D36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="I36" s="1"/>
+      <c r="O36" s="12">
+        <f t="shared" si="7"/>
+        <v>2462.0057532798023</v>
+      </c>
     </row>
     <row r="37" spans="4:15">
       <c r="D37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:15">
+      <c r="D38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:15">
+      <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="7">
-        <f>E35*E36</f>
+      <c r="E39" s="7">
+        <f>E37*E38</f>
         <v>3000</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1794,13 +1863,13 @@
       <selection activeCell="A9" sqref="A9:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.90625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1953,48 +2022,48 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="H9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="I9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4">
         <v>2.6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="42">
+        <v>43</v>
+      </c>
+      <c r="D10" s="40">
         <v>45418</v>
       </c>
       <c r="E10" s="3">
@@ -2006,11 +2075,11 @@
       <c r="G10" s="3">
         <v>21284</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <f>F10/E10</f>
         <v>2.9178999999999999</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="35">
         <f>G10/E10</f>
         <v>2.1284000000000001</v>
       </c>
@@ -2020,7 +2089,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4">
         <v>20</v>
@@ -2028,7 +2097,7 @@
       <c r="C11" s="2">
         <v>6.68</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="40">
         <v>45433</v>
       </c>
       <c r="E11" s="3">
@@ -2040,11 +2109,11 @@
       <c r="G11" s="3">
         <v>256986</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <f t="shared" ref="H11:H20" si="1">F11/E11</f>
         <v>3.7423625</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="35">
         <f t="shared" ref="I11:I20" si="2">G11/E11</f>
         <v>3.2123249999999999</v>
       </c>
@@ -2054,7 +2123,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4">
         <v>152.5</v>
@@ -2062,7 +2131,7 @@
       <c r="C12" s="2">
         <v>1.06</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="40">
         <v>45418</v>
       </c>
       <c r="E12" s="3">
@@ -2074,11 +2143,11 @@
       <c r="G12" s="3">
         <v>241589</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="35">
         <f t="shared" si="1"/>
         <v>7.9592999999999998</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="35">
         <f t="shared" si="2"/>
         <v>6.0397249999999998</v>
       </c>
@@ -2088,7 +2157,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4">
         <v>1550</v>
@@ -2096,7 +2165,7 @@
       <c r="C13" s="2">
         <v>294.5</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="40">
         <v>45428</v>
       </c>
       <c r="E13" s="3">
@@ -2108,11 +2177,11 @@
       <c r="G13" s="3">
         <v>1188467</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <f t="shared" si="1"/>
         <v>6.8875947368421055</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="35">
         <f t="shared" si="2"/>
         <v>6.2550894736842109</v>
       </c>
@@ -2122,7 +2191,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4">
         <v>4.3</v>
@@ -2130,7 +2199,7 @@
       <c r="C14" s="2">
         <v>0.62</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="40">
         <v>45436</v>
       </c>
       <c r="E14" s="3">
@@ -2142,11 +2211,11 @@
       <c r="G14" s="3">
         <v>437167</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="35">
         <f t="shared" si="1"/>
         <v>7.4679333333333338</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="35">
         <f t="shared" si="2"/>
         <v>7.2861166666666666</v>
       </c>
@@ -2156,7 +2225,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <v>20.9</v>
@@ -2164,7 +2233,7 @@
       <c r="C15" s="2">
         <v>1.73</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="40">
         <v>45419</v>
       </c>
       <c r="E15" s="3">
@@ -2176,11 +2245,11 @@
       <c r="G15" s="3">
         <v>293471</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="35">
         <f t="shared" si="1"/>
         <v>2.8016000000000001</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <f t="shared" si="2"/>
         <v>2.9347099999999999</v>
       </c>
@@ -2190,7 +2259,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4">
         <v>122.8</v>
@@ -2198,7 +2267,7 @@
       <c r="C16" s="2">
         <v>1.55</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="40">
         <v>45434</v>
       </c>
       <c r="E16" s="3">
@@ -2210,11 +2279,11 @@
       <c r="G16" s="3">
         <v>191915</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <f t="shared" si="1"/>
         <v>3.976173076923077</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="35">
         <f t="shared" si="2"/>
         <v>3.6906730769230771</v>
       </c>
@@ -2224,7 +2293,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4">
         <v>9.5</v>
@@ -2232,7 +2301,7 @@
       <c r="C17" s="2">
         <v>6.72</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="40">
         <v>45434</v>
       </c>
       <c r="E17" s="3">
@@ -2244,11 +2313,11 @@
       <c r="G17" s="3">
         <v>31451</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <f t="shared" si="1"/>
         <v>1.7184999999999999</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="35">
         <f t="shared" si="2"/>
         <v>1.5725499999999999</v>
       </c>
@@ -2258,7 +2327,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>19.14</v>
@@ -2266,7 +2335,7 @@
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="40">
         <v>45428</v>
       </c>
       <c r="E18" s="3">
@@ -2278,11 +2347,11 @@
       <c r="G18" s="3">
         <v>5157</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <f t="shared" si="1"/>
         <v>7.2850000000000001</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="35">
         <f t="shared" si="2"/>
         <v>5.157</v>
       </c>
@@ -2292,7 +2361,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4">
         <v>186.3</v>
@@ -2300,7 +2369,7 @@
       <c r="C19" s="2">
         <v>441.2</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="40">
         <v>45433</v>
       </c>
       <c r="E19" s="3">
@@ -2312,11 +2381,11 @@
       <c r="G19" s="3">
         <v>1560716</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="35">
         <f t="shared" si="1"/>
         <v>1.4679272207725065</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="35">
         <f t="shared" si="2"/>
         <v>1.3630088415198611</v>
       </c>
@@ -2326,7 +2395,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4">
         <v>8640</v>
@@ -2334,7 +2403,7 @@
       <c r="C20" s="2">
         <v>268.3</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="40">
         <v>45428</v>
       </c>
       <c r="E20" s="3">
@@ -2346,11 +2415,11 @@
       <c r="G20" s="3">
         <v>3069814</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <f t="shared" si="1"/>
         <v>43.819675324675323</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="35">
         <f t="shared" si="2"/>
         <v>39.867714285714285</v>
       </c>

--- a/stock/trading_time.xlsx
+++ b/stock/trading_time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Balance</t>
   </si>
@@ -224,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -289,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -328,9 +340,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,6 +413,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +720,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -711,23 +729,23 @@
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="3.6328125" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="24" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="4.54296875" style="16" customWidth="1"/>
     <col min="12" max="12" width="11.90625" style="19" customWidth="1"/>
     <col min="13" max="13" width="7.81640625" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="7.36328125" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="8.36328125" style="30" customWidth="1"/>
     <col min="17" max="17" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="49"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
@@ -736,22 +754,22 @@
       <c r="B2" s="13">
         <v>6000</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="28">
         <v>2</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="28">
         <v>3</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <v>4</v>
       </c>
-      <c r="P2" s="30"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -760,10 +778,10 @@
       <c r="B3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="6">
@@ -784,7 +802,7 @@
         <f>N3</f>
         <v>10000</v>
       </c>
-      <c r="P3" s="30"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -793,7 +811,7 @@
       <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>1</v>
       </c>
       <c r="E4" s="7">
@@ -819,11 +837,11 @@
         <f>O3*0.96</f>
         <v>9600</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="29">
         <f t="shared" ref="P4:P6" si="0">(N4-M4)/M4*100</f>
         <v>-1.0204081632653061</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="29">
         <f>(O4-M4)/M4*100</f>
         <v>-2.0408163265306123</v>
       </c>
@@ -835,7 +853,7 @@
       <c r="B5" s="13">
         <v>300</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>1.5</v>
       </c>
       <c r="E5" s="7">
@@ -861,11 +879,11 @@
         <f t="shared" ref="O5:O21" si="4">O4*0.96</f>
         <v>9216</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="29">
         <f t="shared" si="0"/>
         <v>-2.0304039983340272</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <f t="shared" ref="Q5:Q19" si="5">(O5-M5)/M5*100</f>
         <v>-4.039983340274885</v>
       </c>
@@ -878,7 +896,7 @@
         <f>B2*B3/100</f>
         <v>240</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>2</v>
       </c>
       <c r="E6" s="7">
@@ -904,11 +922,11 @@
         <f t="shared" si="4"/>
         <v>8847.36</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <f t="shared" si="0"/>
         <v>-3.0300937534530736</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="29">
         <f t="shared" si="5"/>
         <v>-5.998351027208046</v>
       </c>
@@ -940,11 +958,11 @@
         <f t="shared" si="4"/>
         <v>8493.4655999999995</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <f>(N7-M7)/M7*100</f>
         <v>-4.0195825927035553</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <f t="shared" si="5"/>
         <v>-7.9167520266527891</v>
       </c>
@@ -976,11 +994,11 @@
         <f t="shared" si="4"/>
         <v>8153.726975999999</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="29">
         <f t="shared" ref="P8:P19" si="6">(N8-M8)/M8*100</f>
         <v>-4.9989746070637233</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <f t="shared" si="5"/>
         <v>-9.7960019852925413</v>
       </c>
@@ -1005,24 +1023,24 @@
         <f t="shared" si="4"/>
         <v>7827.5778969599987</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="29">
         <f t="shared" si="6"/>
         <v>-5.9683728253589923</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <f t="shared" si="5"/>
         <v>-11.636899903960037</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="49"/>
+      <c r="D10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="6">
@@ -1044,11 +1062,11 @@
         <f t="shared" si="4"/>
         <v>7514.4747810815988</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="29">
         <f t="shared" si="6"/>
         <v>-6.9278792251002361</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <f t="shared" si="5"/>
         <v>-13.440228477348615</v>
       </c>
@@ -1058,12 +1076,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="13">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>1.0717000000000001</v>
       </c>
       <c r="K11" s="6">
@@ -1085,11 +1103,11 @@
         <f t="shared" si="4"/>
         <v>7213.8957898383351</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="29">
         <f t="shared" si="6"/>
         <v>-7.8775947432114561</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="29">
         <f t="shared" si="5"/>
         <v>-15.206754426790479</v>
       </c>
@@ -1104,7 +1122,7 @@
       <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>1.2751999999999999</v>
       </c>
       <c r="K12" s="6">
@@ -1126,11 +1144,11 @@
         <f t="shared" si="4"/>
         <v>6925.339958244801</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="29">
         <f t="shared" si="6"/>
         <v>-8.8176192866480783</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="29">
         <f t="shared" si="5"/>
         <v>-16.937228826243739</v>
       </c>
@@ -1145,7 +1163,7 @@
       <c r="D13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>0.65790000000000004</v>
       </c>
       <c r="K13" s="6">
@@ -1167,11 +1185,11 @@
         <f t="shared" si="4"/>
         <v>6648.3263599150087</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="29">
         <f t="shared" si="6"/>
         <v>-9.7480517429067692</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="29">
         <f t="shared" si="5"/>
         <v>-18.632387421626522</v>
       </c>
@@ -1180,14 +1198,14 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="23">
-        <f>E17</f>
-        <v>10</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="22">
+        <f>E18</f>
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="26">
         <f>E12</f>
         <v>1.2751999999999999</v>
       </c>
@@ -1210,11 +1228,11 @@
         <f t="shared" si="4"/>
         <v>6382.3933055184079</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="29">
         <f t="shared" si="6"/>
         <v>-10.668989990428129</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="29">
         <f t="shared" si="5"/>
         <v>-20.292950943634143</v>
       </c>
@@ -1225,12 +1243,12 @@
       </c>
       <c r="B15" s="18">
         <f>B11*B12/100</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="26">
         <f>E11</f>
         <v>1.0717000000000001</v>
       </c>
@@ -1253,11 +1271,11 @@
         <f t="shared" si="4"/>
         <v>6127.0975732976713</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <f t="shared" si="6"/>
         <v>-11.580530908893151</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="29">
         <f t="shared" si="5"/>
         <v>-21.919625414172224</v>
       </c>
@@ -1268,12 +1286,12 @@
       </c>
       <c r="B16" s="18">
         <f>B14*B17*100000</f>
-        <v>800000</v>
+        <v>1199999.9999999998</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="26">
         <v>1</v>
       </c>
       <c r="K16" s="6">
@@ -1295,11 +1313,11 @@
         <f t="shared" si="4"/>
         <v>5882.0136703657645</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="29">
         <f t="shared" si="6"/>
         <v>-12.482770389414648</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="29">
         <f t="shared" si="5"/>
         <v>-23.513102446536053</v>
       </c>
@@ -1308,16 +1326,15 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="47">
         <f>B11/(B13/B12)/100000/B14</f>
-        <v>0.8</v>
+        <v>4.4101433296582133</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7">
-        <f>10</f>
-        <v>10</v>
+      <c r="E17" s="52">
+        <v>2721</v>
       </c>
       <c r="F17" s="5"/>
       <c r="K17" s="6">
@@ -1339,16 +1356,23 @@
         <f t="shared" si="4"/>
         <v>5646.7331235511338</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="29">
         <f t="shared" si="6"/>
         <v>-13.375803344624707</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="29">
         <f t="shared" si="5"/>
         <v>-25.074059539463889</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="D18" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="51">
+        <f>E17/1000</f>
+        <v>2.7210000000000001</v>
+      </c>
       <c r="K18" s="6">
         <v>16</v>
       </c>
@@ -1368,18 +1392,18 @@
         <f t="shared" si="4"/>
         <v>5420.863798609088</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="29">
         <f t="shared" si="6"/>
         <v>-14.259723718659147</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="29">
         <f t="shared" si="5"/>
         <v>-26.603160365189122</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D19"/>
@@ -1403,20 +1427,20 @@
         <f t="shared" si="4"/>
         <v>5204.0292466647243</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="29">
         <f t="shared" si="6"/>
         <v>-15.134624497040175</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="29">
         <f t="shared" si="5"/>
         <v>-28.101055051613834</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="45">
         <v>1.26675</v>
       </c>
       <c r="D20"/>
@@ -1440,13 +1464,13 @@
         <f t="shared" si="4"/>
         <v>4995.868076798135</v>
       </c>
-      <c r="P20" s="30"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>1.2655400000000001</v>
       </c>
       <c r="D21"/>
@@ -1470,13 +1494,13 @@
         <f t="shared" si="4"/>
         <v>4796.0333537262095</v>
       </c>
-      <c r="P21" s="30"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>1.25685</v>
       </c>
       <c r="K22" s="6">
@@ -1489,13 +1513,13 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="30"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <f>ABS((B21-B20)/B21*100)</f>
         <v>9.5611359577724389E-2</v>
       </c>
@@ -1518,15 +1542,15 @@
         <f>O21*0.95</f>
         <v>4556.2316860398987</v>
       </c>
-      <c r="P23" s="30"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <f>B11/(B23/B12)/100000/B14</f>
-        <v>0.4183603305785355</v>
+        <v>2.3062862766181667</v>
       </c>
       <c r="K24" s="6">
         <v>22</v>
@@ -1547,13 +1571,13 @@
         <f t="shared" ref="O24:O36" si="7">O23*0.95</f>
         <v>4328.4201017379037</v>
       </c>
-      <c r="P24" s="30"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="43">
         <f>ABS(((B22-B21)/B21*100)/B23)</f>
         <v>7.1818181818186497</v>
       </c>
@@ -1576,13 +1600,13 @@
         <f t="shared" si="7"/>
         <v>4111.9990966510086</v>
       </c>
-      <c r="P25" s="30"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <f>ABS((B21-B22)/B21*100)</f>
         <v>0.68666340060370168</v>
       </c>
@@ -1591,15 +1615,15 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
-      <c r="P26" s="30"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="44">
         <f>B25*B15</f>
-        <v>2872.7272727274599</v>
+        <v>4309.09090909119</v>
       </c>
       <c r="K27" s="6">
         <v>24</v>
@@ -1620,7 +1644,7 @@
         <f>O25*0.95</f>
         <v>3906.3991418184578</v>
       </c>
-      <c r="P27" s="30"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:17">
       <c r="K28" s="6">
@@ -1642,7 +1666,7 @@
         <f t="shared" si="7"/>
         <v>3711.0791847275345</v>
       </c>
-      <c r="P28" s="30"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:17">
       <c r="K29" s="6">
@@ -1664,7 +1688,7 @@
         <f t="shared" si="7"/>
         <v>3525.5252254911575</v>
       </c>
-      <c r="P29" s="30"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:17">
       <c r="K30" s="6">
@@ -1686,7 +1710,7 @@
         <f t="shared" si="7"/>
         <v>3349.2489642165992</v>
       </c>
-      <c r="P30" s="30"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:17">
       <c r="K31" s="6">
@@ -1830,7 +1854,7 @@
       <c r="D38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="25">
         <v>0.3</v>
       </c>
       <c r="I38" s="1"/>
@@ -2022,34 +2046,34 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2063,7 +2087,7 @@
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>45418</v>
       </c>
       <c r="E10" s="3">
@@ -2075,11 +2099,11 @@
       <c r="G10" s="3">
         <v>21284</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <f>F10/E10</f>
         <v>2.9178999999999999</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <f>G10/E10</f>
         <v>2.1284000000000001</v>
       </c>
@@ -2097,7 +2121,7 @@
       <c r="C11" s="2">
         <v>6.68</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>45433</v>
       </c>
       <c r="E11" s="3">
@@ -2109,11 +2133,11 @@
       <c r="G11" s="3">
         <v>256986</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <f t="shared" ref="H11:H20" si="1">F11/E11</f>
         <v>3.7423625</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <f t="shared" ref="I11:I20" si="2">G11/E11</f>
         <v>3.2123249999999999</v>
       </c>
@@ -2131,7 +2155,7 @@
       <c r="C12" s="2">
         <v>1.06</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="39">
         <v>45418</v>
       </c>
       <c r="E12" s="3">
@@ -2143,11 +2167,11 @@
       <c r="G12" s="3">
         <v>241589</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <f t="shared" si="1"/>
         <v>7.9592999999999998</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <f t="shared" si="2"/>
         <v>6.0397249999999998</v>
       </c>
@@ -2165,7 +2189,7 @@
       <c r="C13" s="2">
         <v>294.5</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="39">
         <v>45428</v>
       </c>
       <c r="E13" s="3">
@@ -2177,11 +2201,11 @@
       <c r="G13" s="3">
         <v>1188467</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <f t="shared" si="1"/>
         <v>6.8875947368421055</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <f t="shared" si="2"/>
         <v>6.2550894736842109</v>
       </c>
@@ -2199,7 +2223,7 @@
       <c r="C14" s="2">
         <v>0.62</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <v>45436</v>
       </c>
       <c r="E14" s="3">
@@ -2211,11 +2235,11 @@
       <c r="G14" s="3">
         <v>437167</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <f t="shared" si="1"/>
         <v>7.4679333333333338</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f t="shared" si="2"/>
         <v>7.2861166666666666</v>
       </c>
@@ -2233,7 +2257,7 @@
       <c r="C15" s="2">
         <v>1.73</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="39">
         <v>45419</v>
       </c>
       <c r="E15" s="3">
@@ -2245,11 +2269,11 @@
       <c r="G15" s="3">
         <v>293471</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <f t="shared" si="1"/>
         <v>2.8016000000000001</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f t="shared" si="2"/>
         <v>2.9347099999999999</v>
       </c>
@@ -2267,7 +2291,7 @@
       <c r="C16" s="2">
         <v>1.55</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="39">
         <v>45434</v>
       </c>
       <c r="E16" s="3">
@@ -2279,11 +2303,11 @@
       <c r="G16" s="3">
         <v>191915</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <f t="shared" si="1"/>
         <v>3.976173076923077</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <f t="shared" si="2"/>
         <v>3.6906730769230771</v>
       </c>
@@ -2301,7 +2325,7 @@
       <c r="C17" s="2">
         <v>6.72</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <v>45434</v>
       </c>
       <c r="E17" s="3">
@@ -2313,11 +2337,11 @@
       <c r="G17" s="3">
         <v>31451</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <f t="shared" si="1"/>
         <v>1.7184999999999999</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <f t="shared" si="2"/>
         <v>1.5725499999999999</v>
       </c>
@@ -2335,7 +2359,7 @@
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>45428</v>
       </c>
       <c r="E18" s="3">
@@ -2347,11 +2371,11 @@
       <c r="G18" s="3">
         <v>5157</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <f t="shared" si="1"/>
         <v>7.2850000000000001</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="34">
         <f t="shared" si="2"/>
         <v>5.157</v>
       </c>
@@ -2369,7 +2393,7 @@
       <c r="C19" s="2">
         <v>441.2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <v>45433</v>
       </c>
       <c r="E19" s="3">
@@ -2381,11 +2405,11 @@
       <c r="G19" s="3">
         <v>1560716</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <f t="shared" si="1"/>
         <v>1.4679272207725065</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <f t="shared" si="2"/>
         <v>1.3630088415198611</v>
       </c>
@@ -2403,7 +2427,7 @@
       <c r="C20" s="2">
         <v>268.3</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>45428</v>
       </c>
       <c r="E20" s="3">
@@ -2415,11 +2439,11 @@
       <c r="G20" s="3">
         <v>3069814</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="1"/>
         <v>43.819675324675323</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="2"/>
         <v>39.867714285714285</v>
       </c>
